--- a/templates/16-Lam BA Evaluasi 2 Sampul Sd Edited, SistemBobot.xlsx
+++ b/templates/16-Lam BA Evaluasi 2 Sampul Sd Edited, SistemBobot.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7005" tabRatio="331"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7005" tabRatio="331" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RekAdm" sheetId="1" r:id="rId1"/>
@@ -79,12 +79,12 @@
     <definedName name="VolTelkom">#REF!</definedName>
     <definedName name="VolTelkom_3">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="232">
   <si>
     <t>Lampiran Berita Acara Evaluasi</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>12.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PANITIA-E </t>
   </si>
   <si>
     <t>PANITIA-E PENGADAAN BARANG / JASA</t>
@@ -696,12 +693,6 @@
     </r>
   </si>
   <si>
-    <t>No.: 007.BABPH/611/PPBJ-E/2011</t>
-  </si>
-  <si>
-    <t>Tanggal : 28 November 2011</t>
-  </si>
-  <si>
     <t>EVALUASI AKHIR</t>
   </si>
   <si>
@@ -958,18 +949,6 @@
     <t>EVALUASI TEKNIS (SISTEM BOBOT)</t>
   </si>
   <si>
-    <t>PEKERJAAN.................................................................................................</t>
-  </si>
-  <si>
-    <t>No.:     .BAEAT/      /     /</t>
-  </si>
-  <si>
-    <t>Tanggal :</t>
-  </si>
-  <si>
-    <t>PEKERJAAN ............................................................</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"> </t>
     </r>
@@ -997,9 +976,6 @@
       </rPr>
       <t>(Anggota)</t>
     </r>
-  </si>
-  <si>
-    <t>PANITIA-</t>
   </si>
   <si>
     <t>PT .......</t>
@@ -1037,6 +1013,59 @@
       </rPr>
       <t>(Sesuai RKS)</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PEKERJAAN </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#namapengadaan#</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No.: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#nomor#</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tanggal : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#tanggal#</t>
+    </r>
+  </si>
+  <si>
+    <t>#panitia#</t>
+  </si>
+  <si>
+    <t>#namapengadaan#</t>
+  </si>
+  <si>
+    <t>#panitia# #namapengadaan#</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1085,7 @@
     <numFmt numFmtId="173" formatCode="&quot;Rp. &quot;#,##0;[Red]&quot;Rp. -&quot;#,##0"/>
     <numFmt numFmtId="174" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1391,6 +1420,27 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="27">
     <fill>
@@ -2814,7 +2864,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="385">
+  <cellXfs count="386">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3718,6 +3768,30 @@
     <xf numFmtId="0" fontId="30" fillId="20" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3728,28 +3802,49 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3757,9 +3852,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3769,97 +3861,30 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="25" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3882,14 +3907,54 @@
     <xf numFmtId="0" fontId="29" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="30" fillId="21" borderId="101" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="30" fillId="21" borderId="102" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3900,29 +3965,17 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="30" fillId="21" borderId="101" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="30" fillId="21" borderId="102" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4365,8 +4418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="87" zoomScaleSheetLayoutView="87" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:H15"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="87" zoomScaleSheetLayoutView="87" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4392,55 +4445,55 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="6" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="2:11" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="317" t="s">
+      <c r="B5" s="313" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="317"/>
-      <c r="D5" s="317"/>
-      <c r="E5" s="317"/>
-      <c r="F5" s="317"/>
-      <c r="G5" s="317"/>
-      <c r="H5" s="317"/>
+      <c r="C5" s="313"/>
+      <c r="D5" s="313"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="313"/>
+      <c r="G5" s="313"/>
+      <c r="H5" s="313"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="317" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="317"/>
-      <c r="D6" s="317"/>
-      <c r="E6" s="317"/>
-      <c r="F6" s="317"/>
-      <c r="G6" s="317"/>
-      <c r="H6" s="317"/>
+      <c r="B6" s="313" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="313"/>
+      <c r="D6" s="313"/>
+      <c r="E6" s="313"/>
+      <c r="F6" s="313"/>
+      <c r="G6" s="313"/>
+      <c r="H6" s="313"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="317" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="317"/>
-      <c r="D7" s="317"/>
-      <c r="E7" s="317"/>
-      <c r="F7" s="317"/>
-      <c r="G7" s="317"/>
-      <c r="H7" s="317"/>
+      <c r="B7" s="313" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="313"/>
+      <c r="D7" s="313"/>
+      <c r="E7" s="313"/>
+      <c r="F7" s="313"/>
+      <c r="G7" s="313"/>
+      <c r="H7" s="313"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -4450,18 +4503,18 @@
       <c r="B9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="318" t="s">
+      <c r="C9" s="314" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="318"/>
+      <c r="D9" s="314"/>
       <c r="E9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="319" t="s">
+      <c r="F9" s="315" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="319"/>
-      <c r="H9" s="319"/>
+      <c r="G9" s="315"/>
+      <c r="H9" s="315"/>
     </row>
     <row r="10" spans="2:11" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
@@ -4485,133 +4538,133 @@
       <c r="B12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="320"/>
-      <c r="D12" s="320"/>
+      <c r="C12" s="311"/>
+      <c r="D12" s="311"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="321"/>
-      <c r="G12" s="321"/>
-      <c r="H12" s="321"/>
+      <c r="F12" s="312"/>
+      <c r="G12" s="312"/>
+      <c r="H12" s="312"/>
     </row>
     <row r="13" spans="2:11" s="8" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="315"/>
-      <c r="D13" s="315"/>
+      <c r="C13" s="316"/>
+      <c r="D13" s="316"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="316"/>
-      <c r="G13" s="316"/>
-      <c r="H13" s="316"/>
+      <c r="F13" s="317"/>
+      <c r="G13" s="317"/>
+      <c r="H13" s="317"/>
     </row>
     <row r="14" spans="2:11" s="8" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="315"/>
-      <c r="D14" s="315"/>
+      <c r="C14" s="316"/>
+      <c r="D14" s="316"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="316"/>
-      <c r="G14" s="316"/>
-      <c r="H14" s="316"/>
+      <c r="F14" s="317"/>
+      <c r="G14" s="317"/>
+      <c r="H14" s="317"/>
     </row>
     <row r="15" spans="2:11" s="8" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="315"/>
-      <c r="D15" s="315"/>
+      <c r="C15" s="316"/>
+      <c r="D15" s="316"/>
       <c r="E15" s="25"/>
-      <c r="F15" s="316"/>
-      <c r="G15" s="316"/>
-      <c r="H15" s="316"/>
+      <c r="F15" s="317"/>
+      <c r="G15" s="317"/>
+      <c r="H15" s="317"/>
     </row>
     <row r="16" spans="2:11" s="8" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="315"/>
-      <c r="D16" s="315"/>
+      <c r="C16" s="316"/>
+      <c r="D16" s="316"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="316"/>
-      <c r="G16" s="316"/>
-      <c r="H16" s="316"/>
+      <c r="F16" s="317"/>
+      <c r="G16" s="317"/>
+      <c r="H16" s="317"/>
     </row>
     <row r="17" spans="1:8" s="8" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="315"/>
-      <c r="D17" s="315"/>
+      <c r="C17" s="316"/>
+      <c r="D17" s="316"/>
       <c r="E17" s="25"/>
-      <c r="F17" s="316"/>
-      <c r="G17" s="316"/>
-      <c r="H17" s="316"/>
+      <c r="F17" s="317"/>
+      <c r="G17" s="317"/>
+      <c r="H17" s="317"/>
     </row>
     <row r="18" spans="1:8" s="8" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="315"/>
-      <c r="D18" s="315"/>
+      <c r="C18" s="316"/>
+      <c r="D18" s="316"/>
       <c r="E18" s="23"/>
-      <c r="F18" s="316"/>
-      <c r="G18" s="316"/>
-      <c r="H18" s="316"/>
+      <c r="F18" s="317"/>
+      <c r="G18" s="317"/>
+      <c r="H18" s="317"/>
     </row>
     <row r="19" spans="1:8" s="8" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="315"/>
-      <c r="D19" s="315"/>
+      <c r="C19" s="316"/>
+      <c r="D19" s="316"/>
       <c r="E19" s="23"/>
-      <c r="F19" s="316"/>
-      <c r="G19" s="316"/>
-      <c r="H19" s="316"/>
+      <c r="F19" s="317"/>
+      <c r="G19" s="317"/>
+      <c r="H19" s="317"/>
     </row>
     <row r="20" spans="1:8" s="8" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="315"/>
-      <c r="D20" s="315"/>
+      <c r="C20" s="316"/>
+      <c r="D20" s="316"/>
       <c r="E20" s="23"/>
-      <c r="F20" s="316"/>
-      <c r="G20" s="316"/>
-      <c r="H20" s="316"/>
+      <c r="F20" s="317"/>
+      <c r="G20" s="317"/>
+      <c r="H20" s="317"/>
     </row>
     <row r="21" spans="1:8" s="8" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="315"/>
-      <c r="D21" s="315"/>
+      <c r="C21" s="316"/>
+      <c r="D21" s="316"/>
       <c r="E21" s="23"/>
-      <c r="F21" s="316"/>
-      <c r="G21" s="316"/>
-      <c r="H21" s="316"/>
+      <c r="F21" s="317"/>
+      <c r="G21" s="317"/>
+      <c r="H21" s="317"/>
     </row>
     <row r="22" spans="1:8" s="8" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="315"/>
-      <c r="D22" s="315"/>
+      <c r="C22" s="316"/>
+      <c r="D22" s="316"/>
       <c r="E22" s="23"/>
-      <c r="F22" s="316"/>
-      <c r="G22" s="316"/>
-      <c r="H22" s="316"/>
+      <c r="F22" s="317"/>
+      <c r="G22" s="317"/>
+      <c r="H22" s="317"/>
     </row>
     <row r="23" spans="1:8" s="8" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="315"/>
-      <c r="D23" s="315"/>
+      <c r="C23" s="316"/>
+      <c r="D23" s="316"/>
       <c r="E23" s="23"/>
-      <c r="F23" s="316"/>
-      <c r="G23" s="316"/>
-      <c r="H23" s="316"/>
+      <c r="F23" s="317"/>
+      <c r="G23" s="317"/>
+      <c r="H23" s="317"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="26"/>
@@ -4627,143 +4680,143 @@
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
-      <c r="E27" s="311" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="311"/>
-      <c r="G27" s="311"/>
-      <c r="H27" s="311"/>
+      <c r="E27" s="319" t="s">
+        <v>229</v>
+      </c>
+      <c r="F27" s="319"/>
+      <c r="G27" s="319"/>
+      <c r="H27" s="319"/>
     </row>
     <row r="28" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="33"/>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
-      <c r="E28" s="311" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="311"/>
-      <c r="G28" s="311"/>
-      <c r="H28" s="311"/>
+      <c r="E28" s="372" t="s">
+        <v>231</v>
+      </c>
+      <c r="F28" s="319"/>
+      <c r="G28" s="319"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="33"/>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
-      <c r="E29" s="311" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="311"/>
-      <c r="G29" s="311"/>
-      <c r="H29" s="311"/>
+      <c r="E29" s="319" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="319"/>
+      <c r="G29" s="319"/>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="312"/>
-      <c r="B31" s="312"/>
-      <c r="C31" s="312"/>
-      <c r="D31" s="312"/>
+      <c r="A31" s="320"/>
+      <c r="B31" s="320"/>
+      <c r="C31" s="320"/>
+      <c r="D31" s="320"/>
       <c r="E31" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="35" t="s">
+      <c r="G31" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="36" t="s">
+    </row>
+    <row r="32" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="320" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="312" t="s">
+      <c r="B32" s="320"/>
+      <c r="C32" s="320"/>
+      <c r="D32" s="320"/>
+      <c r="E32" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="312"/>
-      <c r="C32" s="312"/>
-      <c r="D32" s="312"/>
-      <c r="E32" s="34" t="s">
+      <c r="F32" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="35" t="s">
+      <c r="H32" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="321" t="s">
         <v>26</v>
       </c>
-      <c r="H32" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="313" t="s">
+      <c r="B33" s="321"/>
+      <c r="C33" s="321"/>
+      <c r="D33" s="321"/>
+      <c r="E33" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="313"/>
-      <c r="C33" s="313"/>
-      <c r="D33" s="313"/>
-      <c r="E33" s="34" t="s">
+      <c r="F33" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="35" t="s">
+      <c r="G33" s="36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="321"/>
+      <c r="B34" s="321"/>
+      <c r="C34" s="321"/>
+      <c r="D34" s="321"/>
+      <c r="E34" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G33" s="36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="313"/>
-      <c r="B34" s="313"/>
-      <c r="C34" s="313"/>
-      <c r="D34" s="313"/>
-      <c r="E34" s="34" t="s">
+      <c r="F34" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="318"/>
+      <c r="B35" s="318"/>
+      <c r="C35" s="318"/>
+      <c r="D35" s="318"/>
+      <c r="E35" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="314"/>
-      <c r="B35" s="314"/>
-      <c r="C35" s="314"/>
-      <c r="D35" s="314"/>
-      <c r="E35" s="34" t="s">
+      <c r="F35" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="318" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="314" t="s">
+      <c r="B36" s="318"/>
+      <c r="C36" s="318"/>
+      <c r="D36" s="318"/>
+      <c r="E36" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="314"/>
-      <c r="C36" s="314"/>
-      <c r="D36" s="314"/>
-      <c r="E36" s="34" t="s">
-        <v>33</v>
-      </c>
       <c r="F36" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E37" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -4774,31 +4827,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:H21"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="F22:H22"/>
@@ -4811,6 +4839,31 @@
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D34"/>
     <mergeCell ref="A35:D35"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.65972222222222221" right="0.15972222222222221" top="0.37986111111111109" bottom="0.25972222222222224" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup scale="71" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4822,8 +4875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J70"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A27" zoomScale="87" zoomScaleSheetLayoutView="87" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A32" zoomScale="87" zoomScaleSheetLayoutView="87" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4850,14 +4903,14 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5" t="str">
         <f>RekAdm!H2</f>
-        <v>No.:     .BAEAT/      /     /</v>
+        <v>No.: #nomor#</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G3" s="5"/>
       <c r="J3" s="5" t="str">
         <f>RekAdm!H3</f>
-        <v>Tanggal :</v>
+        <v>Tanggal : #tanggal#</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4867,92 +4920,92 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="317" t="s">
+      <c r="B5" s="313" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="317"/>
-      <c r="D5" s="317"/>
-      <c r="E5" s="317"/>
-      <c r="F5" s="317"/>
-      <c r="G5" s="317"/>
-      <c r="H5" s="317"/>
-      <c r="I5" s="317"/>
-      <c r="J5" s="317"/>
+      <c r="C5" s="313"/>
+      <c r="D5" s="313"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="313"/>
+      <c r="G5" s="313"/>
+      <c r="H5" s="313"/>
+      <c r="I5" s="313"/>
+      <c r="J5" s="313"/>
     </row>
     <row r="6" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="317" t="s">
-        <v>222</v>
-      </c>
-      <c r="C6" s="317"/>
-      <c r="D6" s="317"/>
-      <c r="E6" s="317"/>
-      <c r="F6" s="317"/>
-      <c r="G6" s="317"/>
-      <c r="H6" s="317"/>
-      <c r="I6" s="317"/>
-      <c r="J6" s="317"/>
+      <c r="B6" s="313" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="313"/>
+      <c r="D6" s="313"/>
+      <c r="E6" s="313"/>
+      <c r="F6" s="313"/>
+      <c r="G6" s="313"/>
+      <c r="H6" s="313"/>
+      <c r="I6" s="313"/>
+      <c r="J6" s="313"/>
     </row>
     <row r="7" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="317" t="str">
+      <c r="B7" s="313" t="str">
         <f>RekAdm!B7</f>
         <v>PT PLN (PERSERO) KANTOR PUSAT</v>
       </c>
-      <c r="C7" s="317"/>
-      <c r="D7" s="317"/>
-      <c r="E7" s="317"/>
-      <c r="F7" s="317"/>
-      <c r="G7" s="317"/>
-      <c r="H7" s="317"/>
-      <c r="I7" s="317"/>
-      <c r="J7" s="317"/>
+      <c r="C7" s="313"/>
+      <c r="D7" s="313"/>
+      <c r="E7" s="313"/>
+      <c r="F7" s="313"/>
+      <c r="G7" s="313"/>
+      <c r="H7" s="313"/>
+      <c r="I7" s="313"/>
+      <c r="J7" s="313"/>
     </row>
     <row r="8" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="335" t="s">
+      <c r="B9" s="324" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="336" t="s">
-        <v>232</v>
-      </c>
-      <c r="D9" s="337"/>
-      <c r="E9" s="337"/>
-      <c r="F9" s="338"/>
+      <c r="C9" s="325" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="326"/>
+      <c r="E9" s="326"/>
+      <c r="F9" s="327"/>
       <c r="G9" s="309" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="310"/>
       <c r="I9" s="310"/>
       <c r="J9" s="310"/>
     </row>
     <row r="10" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="335"/>
-      <c r="C10" s="336"/>
-      <c r="D10" s="337"/>
-      <c r="E10" s="337"/>
-      <c r="F10" s="338"/>
-      <c r="G10" s="339" t="s">
-        <v>209</v>
-      </c>
-      <c r="H10" s="339" t="s">
-        <v>209</v>
-      </c>
-      <c r="I10" s="339" t="s">
-        <v>210</v>
-      </c>
-      <c r="J10" s="339" t="s">
-        <v>211</v>
+      <c r="B10" s="324"/>
+      <c r="C10" s="325"/>
+      <c r="D10" s="326"/>
+      <c r="E10" s="326"/>
+      <c r="F10" s="327"/>
+      <c r="G10" s="328" t="s">
+        <v>206</v>
+      </c>
+      <c r="H10" s="328" t="s">
+        <v>206</v>
+      </c>
+      <c r="I10" s="328" t="s">
+        <v>207</v>
+      </c>
+      <c r="J10" s="328" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="335"/>
-      <c r="C11" s="336"/>
-      <c r="D11" s="337"/>
-      <c r="E11" s="337"/>
-      <c r="F11" s="338"/>
-      <c r="G11" s="339"/>
-      <c r="H11" s="339"/>
-      <c r="I11" s="339"/>
-      <c r="J11" s="339"/>
+      <c r="B11" s="324"/>
+      <c r="C11" s="325"/>
+      <c r="D11" s="326"/>
+      <c r="E11" s="326"/>
+      <c r="F11" s="327"/>
+      <c r="G11" s="328"/>
+      <c r="H11" s="328"/>
+      <c r="I11" s="328"/>
+      <c r="J11" s="328"/>
     </row>
     <row r="12" spans="2:10" s="41" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="42"/>
@@ -4969,12 +5022,12 @@
       <c r="B13" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="332" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="332"/>
-      <c r="E13" s="332"/>
-      <c r="F13" s="333"/>
+      <c r="C13" s="329" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="329"/>
+      <c r="E13" s="329"/>
+      <c r="F13" s="330"/>
       <c r="G13" s="250"/>
       <c r="H13" s="251"/>
       <c r="I13" s="251"/>
@@ -4983,33 +5036,33 @@
     <row r="14" spans="2:10" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" s="46"/>
       <c r="C14" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="51" t="s">
         <v>38</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>39</v>
       </c>
       <c r="E14" s="50"/>
       <c r="F14" s="50"/>
       <c r="G14" s="234" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" s="252" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="252" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="252" t="s">
+      <c r="J14" s="252" t="s">
         <v>41</v>
-      </c>
-      <c r="J14" s="252" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="2:10" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" s="46"/>
       <c r="C15" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="50"/>
       <c r="F15" s="50"/>
@@ -5029,59 +5082,59 @@
     <row r="16" spans="2:10" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" s="46"/>
       <c r="C16" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="50"/>
       <c r="F16" s="50"/>
       <c r="G16" s="234" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H16" s="252" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I16" s="252" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J16" s="252" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:10" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" s="46"/>
       <c r="C17" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="50"/>
       <c r="F17" s="50"/>
       <c r="G17" s="234" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H17" s="252" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I17" s="252" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J17" s="252" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:10" s="45" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="332" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="332"/>
-      <c r="E18" s="332"/>
-      <c r="F18" s="333"/>
+      <c r="C18" s="329" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="329"/>
+      <c r="E18" s="329"/>
+      <c r="F18" s="330"/>
       <c r="G18" s="234"/>
       <c r="H18" s="252"/>
       <c r="I18" s="252"/>
@@ -5091,12 +5144,12 @@
       <c r="B19" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="332" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="332"/>
-      <c r="E19" s="332"/>
-      <c r="F19" s="333"/>
+      <c r="C19" s="329" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="329"/>
+      <c r="E19" s="329"/>
+      <c r="F19" s="330"/>
       <c r="G19" s="234"/>
       <c r="H19" s="252"/>
       <c r="I19" s="252"/>
@@ -5105,13 +5158,13 @@
     <row r="20" spans="2:10" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="46"/>
       <c r="C20" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="331" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="334" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="334"/>
-      <c r="F20" s="328"/>
+      <c r="E20" s="331"/>
+      <c r="F20" s="332"/>
       <c r="G20" s="234"/>
       <c r="H20" s="252"/>
       <c r="I20" s="252"/>
@@ -5120,13 +5173,13 @@
     <row r="21" spans="2:10" s="45" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="46"/>
       <c r="C21" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="331" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="334" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="334"/>
-      <c r="F21" s="328"/>
+      <c r="E21" s="331"/>
+      <c r="F21" s="332"/>
       <c r="G21" s="234"/>
       <c r="H21" s="255"/>
       <c r="I21" s="256"/>
@@ -5135,13 +5188,13 @@
     <row r="22" spans="2:10" s="45" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="46"/>
       <c r="C22" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="331" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="334" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="334"/>
-      <c r="F22" s="328"/>
+      <c r="E22" s="331"/>
+      <c r="F22" s="332"/>
       <c r="G22" s="234"/>
       <c r="H22" s="252"/>
       <c r="I22" s="252"/>
@@ -5150,13 +5203,13 @@
     <row r="23" spans="2:10" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="46"/>
       <c r="C23" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="334" t="s">
-        <v>179</v>
-      </c>
-      <c r="E23" s="334"/>
-      <c r="F23" s="328"/>
+        <v>56</v>
+      </c>
+      <c r="D23" s="331" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="331"/>
+      <c r="F23" s="332"/>
       <c r="G23" s="234"/>
       <c r="H23" s="252"/>
       <c r="I23" s="252"/>
@@ -5165,13 +5218,13 @@
     <row r="24" spans="2:10" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="46"/>
       <c r="C24" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="334" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="334"/>
-      <c r="F24" s="328"/>
+        <v>63</v>
+      </c>
+      <c r="D24" s="331" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="331"/>
+      <c r="F24" s="332"/>
       <c r="G24" s="234"/>
       <c r="H24" s="252"/>
       <c r="I24" s="252"/>
@@ -5180,13 +5233,13 @@
     <row r="25" spans="2:10" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="46"/>
       <c r="C25" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="331" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="334" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="334"/>
-      <c r="F25" s="328"/>
+      <c r="E25" s="331"/>
+      <c r="F25" s="332"/>
       <c r="G25" s="234"/>
       <c r="H25" s="252"/>
       <c r="I25" s="252"/>
@@ -5195,13 +5248,13 @@
     <row r="26" spans="2:10" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="46"/>
       <c r="C26" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="332" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="328" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="328"/>
-      <c r="F26" s="328"/>
+      <c r="E26" s="332"/>
+      <c r="F26" s="332"/>
       <c r="G26" s="234"/>
       <c r="H26" s="252"/>
       <c r="I26" s="252"/>
@@ -5212,10 +5265,10 @@
       <c r="C27" s="53"/>
       <c r="D27" s="53"/>
       <c r="E27" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F27" s="56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G27" s="234"/>
       <c r="H27" s="252"/>
@@ -5227,10 +5280,10 @@
       <c r="C28" s="53"/>
       <c r="D28" s="53"/>
       <c r="E28" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="56" t="s">
         <v>73</v>
-      </c>
-      <c r="F28" s="56" t="s">
-        <v>74</v>
       </c>
       <c r="G28" s="260"/>
       <c r="H28" s="261"/>
@@ -5242,10 +5295,10 @@
       <c r="C29" s="53"/>
       <c r="D29" s="53"/>
       <c r="E29" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="F29" s="56" t="s">
-        <v>76</v>
       </c>
       <c r="G29" s="235"/>
       <c r="H29" s="258"/>
@@ -5255,13 +5308,13 @@
     <row r="30" spans="2:10" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="46"/>
       <c r="C30" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="332" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="328" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="328"/>
-      <c r="F30" s="328"/>
+      <c r="E30" s="332"/>
+      <c r="F30" s="332"/>
       <c r="G30" s="234"/>
       <c r="H30" s="252"/>
       <c r="I30" s="252"/>
@@ -5272,10 +5325,10 @@
       <c r="C31" s="53"/>
       <c r="D31" s="53"/>
       <c r="E31" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31" s="56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G31" s="234"/>
       <c r="H31" s="252"/>
@@ -5287,10 +5340,10 @@
       <c r="C32" s="53"/>
       <c r="D32" s="53"/>
       <c r="E32" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F32" s="56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G32" s="241"/>
       <c r="H32" s="238"/>
@@ -5302,10 +5355,10 @@
       <c r="C33" s="53"/>
       <c r="D33" s="53"/>
       <c r="E33" s="55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F33" s="56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" s="239"/>
       <c r="H33" s="259"/>
@@ -5315,13 +5368,13 @@
     <row r="34" spans="2:10" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="46"/>
       <c r="C34" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="332" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="328" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="328"/>
-      <c r="F34" s="328"/>
+      <c r="E34" s="332"/>
+      <c r="F34" s="332"/>
       <c r="G34" s="234"/>
       <c r="H34" s="252"/>
       <c r="I34" s="252"/>
@@ -5332,10 +5385,10 @@
       <c r="C35" s="53"/>
       <c r="D35" s="53"/>
       <c r="E35" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F35" s="56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G35" s="234"/>
       <c r="H35" s="252"/>
@@ -5347,10 +5400,10 @@
       <c r="C36" s="53"/>
       <c r="D36" s="53"/>
       <c r="E36" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F36" s="56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G36" s="241"/>
       <c r="H36" s="261"/>
@@ -5362,10 +5415,10 @@
       <c r="C37" s="53"/>
       <c r="D37" s="53"/>
       <c r="E37" s="55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F37" s="56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G37" s="260"/>
       <c r="H37" s="258"/>
@@ -5375,13 +5428,13 @@
     <row r="38" spans="2:10" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="264"/>
       <c r="C38" s="265" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="334" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="330" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="330"/>
-      <c r="F38" s="330"/>
+      <c r="E38" s="334"/>
+      <c r="F38" s="334"/>
       <c r="G38" s="266"/>
       <c r="H38" s="267"/>
       <c r="I38" s="267"/>
@@ -5390,13 +5443,13 @@
     <row r="39" spans="2:10" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="301"/>
       <c r="C39" s="302" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="335" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="331" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="331"/>
-      <c r="F39" s="331"/>
+      <c r="E39" s="335"/>
+      <c r="F39" s="335"/>
       <c r="G39" s="303"/>
       <c r="H39" s="304"/>
       <c r="I39" s="304"/>
@@ -5405,13 +5458,13 @@
     <row r="40" spans="2:10" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="46"/>
       <c r="C40" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="332" t="s">
         <v>89</v>
       </c>
-      <c r="D40" s="328" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="328"/>
-      <c r="F40" s="328"/>
+      <c r="E40" s="332"/>
+      <c r="F40" s="332"/>
       <c r="G40" s="234"/>
       <c r="H40" s="252"/>
       <c r="I40" s="252"/>
@@ -5420,13 +5473,13 @@
     <row r="41" spans="2:10" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="46"/>
       <c r="C41" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="332" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="328" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" s="328"/>
-      <c r="F41" s="328"/>
+      <c r="E41" s="332"/>
+      <c r="F41" s="332"/>
       <c r="G41" s="234"/>
       <c r="H41" s="252"/>
       <c r="I41" s="252"/>
@@ -5435,13 +5488,13 @@
     <row r="42" spans="2:10" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="46"/>
       <c r="C42" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="332" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="328" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" s="328"/>
-      <c r="F42" s="328"/>
+      <c r="E42" s="332"/>
+      <c r="F42" s="332"/>
       <c r="G42" s="234"/>
       <c r="H42" s="252"/>
       <c r="I42" s="252"/>
@@ -5450,11 +5503,11 @@
     <row r="43" spans="2:10" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="46"/>
       <c r="C43" s="53"/>
-      <c r="D43" s="328" t="s">
-        <v>103</v>
-      </c>
-      <c r="E43" s="328"/>
-      <c r="F43" s="328"/>
+      <c r="D43" s="332" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="332"/>
+      <c r="F43" s="332"/>
       <c r="G43" s="234"/>
       <c r="H43" s="252"/>
       <c r="I43" s="252"/>
@@ -5463,13 +5516,13 @@
     <row r="44" spans="2:10" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="46"/>
       <c r="C44" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="332" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="328" t="s">
-        <v>105</v>
-      </c>
-      <c r="E44" s="328"/>
-      <c r="F44" s="328"/>
+      <c r="E44" s="332"/>
+      <c r="F44" s="332"/>
       <c r="G44" s="260"/>
       <c r="H44" s="261"/>
       <c r="I44" s="261"/>
@@ -5478,11 +5531,11 @@
     <row r="45" spans="2:10" s="282" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B45" s="280"/>
       <c r="C45" s="281"/>
-      <c r="D45" s="324" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="324"/>
-      <c r="F45" s="324"/>
+      <c r="D45" s="336" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="336"/>
+      <c r="F45" s="336"/>
       <c r="G45" s="260"/>
       <c r="H45" s="261"/>
       <c r="I45" s="261"/>
@@ -5491,11 +5544,11 @@
     <row r="46" spans="2:10" s="282" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" s="280"/>
       <c r="C46" s="281"/>
-      <c r="D46" s="324" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" s="324"/>
-      <c r="F46" s="324"/>
+      <c r="D46" s="336" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="336"/>
+      <c r="F46" s="336"/>
       <c r="G46" s="260"/>
       <c r="H46" s="261"/>
       <c r="I46" s="261"/>
@@ -5504,11 +5557,11 @@
     <row r="47" spans="2:10" s="282" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B47" s="297"/>
       <c r="C47" s="298"/>
-      <c r="D47" s="329" t="s">
-        <v>108</v>
-      </c>
-      <c r="E47" s="329"/>
-      <c r="F47" s="329"/>
+      <c r="D47" s="333" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="333"/>
+      <c r="F47" s="333"/>
       <c r="G47" s="299"/>
       <c r="H47" s="300"/>
       <c r="I47" s="300"/>
@@ -5517,22 +5570,22 @@
     <row r="48" spans="2:10" s="282" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" s="280"/>
       <c r="C48" s="281"/>
-      <c r="D48" s="324" t="s">
-        <v>107</v>
-      </c>
-      <c r="E48" s="324"/>
-      <c r="F48" s="324"/>
+      <c r="D48" s="336" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" s="336"/>
+      <c r="F48" s="336"/>
       <c r="G48" s="260" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H48" s="261" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I48" s="261" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J48" s="261" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="2:10" s="57" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
@@ -5547,37 +5600,37 @@
       <c r="J49" s="262"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="325" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" s="326"/>
-      <c r="D50" s="326"/>
-      <c r="E50" s="326"/>
-      <c r="F50" s="327"/>
+      <c r="B50" s="339" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="340"/>
+      <c r="D50" s="340"/>
+      <c r="E50" s="340"/>
+      <c r="F50" s="341"/>
       <c r="G50" s="59" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H50" s="247" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I50" s="247" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J50" s="247" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B51" s="325" t="s">
+      <c r="B51" s="339" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="326"/>
-      <c r="D51" s="326"/>
-      <c r="E51" s="326"/>
-      <c r="F51" s="327"/>
+      <c r="C51" s="340"/>
+      <c r="D51" s="340"/>
+      <c r="E51" s="340"/>
+      <c r="F51" s="341"/>
       <c r="G51" s="248"/>
       <c r="H51" s="249" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I51" s="249"/>
       <c r="J51" s="249"/>
@@ -5594,54 +5647,54 @@
       <c r="J52" s="64"/>
     </row>
     <row r="53" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="312" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="312"/>
-      <c r="D53" s="312"/>
-      <c r="E53" s="312"/>
-      <c r="F53" s="312"/>
+      <c r="B53" s="320" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="320"/>
+      <c r="D53" s="320"/>
+      <c r="E53" s="320"/>
+      <c r="F53" s="320"/>
       <c r="G53" s="154"/>
-      <c r="H53" s="311" t="s">
-        <v>218</v>
-      </c>
-      <c r="I53" s="311"/>
-      <c r="J53" s="311"/>
+      <c r="H53" s="319" t="s">
+        <v>215</v>
+      </c>
+      <c r="I53" s="319"/>
+      <c r="J53" s="319"/>
     </row>
     <row r="54" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D54" s="154"/>
       <c r="E54" s="154"/>
       <c r="F54" s="154"/>
       <c r="G54" s="217"/>
-      <c r="H54" s="311" t="s">
-        <v>154</v>
-      </c>
-      <c r="I54" s="311"/>
-      <c r="J54" s="311"/>
+      <c r="H54" s="319" t="s">
+        <v>151</v>
+      </c>
+      <c r="I54" s="319"/>
+      <c r="J54" s="319"/>
     </row>
     <row r="55" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="341" t="s">
-        <v>153</v>
-      </c>
-      <c r="C55" s="341"/>
-      <c r="D55" s="341"/>
-      <c r="E55" s="341"/>
-      <c r="F55" s="341"/>
+      <c r="B55" s="322" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="322"/>
+      <c r="D55" s="322"/>
+      <c r="E55" s="322"/>
+      <c r="F55" s="322"/>
       <c r="G55" s="217"/>
-      <c r="H55" s="311" t="s">
-        <v>20</v>
-      </c>
-      <c r="I55" s="311"/>
-      <c r="J55" s="311"/>
+      <c r="H55" s="319" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" s="319"/>
+      <c r="J55" s="319"/>
     </row>
     <row r="56" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="341" t="s">
-        <v>155</v>
-      </c>
-      <c r="C56" s="341"/>
-      <c r="D56" s="341"/>
-      <c r="E56" s="341"/>
-      <c r="F56" s="341"/>
+      <c r="B56" s="322" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="322"/>
+      <c r="D56" s="322"/>
+      <c r="E56" s="322"/>
+      <c r="F56" s="322"/>
       <c r="G56" s="154"/>
       <c r="H56" s="2"/>
       <c r="I56" s="3"/>
@@ -5651,161 +5704,125 @@
       <c r="D57" s="154"/>
       <c r="E57" s="154"/>
       <c r="F57" s="154"/>
-      <c r="G57" s="340" t="s">
-        <v>216</v>
-      </c>
-      <c r="H57" s="340"/>
+      <c r="G57" s="323" t="s">
+        <v>213</v>
+      </c>
+      <c r="H57" s="323"/>
       <c r="I57" s="112" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J57" s="220" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="312"/>
-      <c r="C58" s="312"/>
-      <c r="D58" s="312"/>
+      <c r="B58" s="320"/>
+      <c r="C58" s="320"/>
+      <c r="D58" s="320"/>
       <c r="E58" s="278"/>
       <c r="F58" s="278"/>
-      <c r="G58" s="340" t="s">
+      <c r="G58" s="323" t="s">
+        <v>214</v>
+      </c>
+      <c r="H58" s="323"/>
+      <c r="I58" s="112" t="s">
+        <v>25</v>
+      </c>
+      <c r="J58" s="74" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="318" t="s">
         <v>217</v>
       </c>
-      <c r="H58" s="340"/>
-      <c r="I58" s="112" t="s">
-        <v>26</v>
-      </c>
-      <c r="J58" s="74" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="314" t="s">
-        <v>220</v>
-      </c>
-      <c r="C59" s="314"/>
-      <c r="D59" s="314"/>
-      <c r="E59" s="314"/>
-      <c r="F59" s="314"/>
-      <c r="G59" s="340" t="s">
-        <v>219</v>
-      </c>
-      <c r="H59" s="340"/>
+      <c r="C59" s="318"/>
+      <c r="D59" s="318"/>
+      <c r="E59" s="318"/>
+      <c r="F59" s="318"/>
+      <c r="G59" s="323" t="s">
+        <v>216</v>
+      </c>
+      <c r="H59" s="323"/>
       <c r="I59" s="112" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J59" s="220" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D60" s="154"/>
       <c r="E60" s="154"/>
       <c r="F60" s="154"/>
-      <c r="G60" s="340"/>
-      <c r="H60" s="340"/>
+      <c r="G60" s="323"/>
+      <c r="H60" s="323"/>
       <c r="I60" s="112"/>
       <c r="J60" s="74" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D61" s="154"/>
       <c r="E61" s="154"/>
       <c r="F61" s="154"/>
-      <c r="G61" s="340"/>
-      <c r="H61" s="340"/>
+      <c r="G61" s="323"/>
+      <c r="H61" s="323"/>
       <c r="I61" s="112"/>
       <c r="J61" s="220" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="314"/>
-      <c r="C62" s="314"/>
-      <c r="D62" s="314"/>
+      <c r="B62" s="318"/>
+      <c r="C62" s="318"/>
+      <c r="D62" s="318"/>
       <c r="E62" s="279"/>
       <c r="F62" s="279"/>
-      <c r="G62" s="340"/>
-      <c r="H62" s="340"/>
+      <c r="G62" s="323"/>
+      <c r="H62" s="323"/>
       <c r="I62" s="112"/>
       <c r="J62" s="74" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D63" s="154"/>
       <c r="E63" s="154"/>
       <c r="F63" s="154"/>
-      <c r="G63" s="340"/>
-      <c r="H63" s="340"/>
+      <c r="G63" s="323"/>
+      <c r="H63" s="323"/>
       <c r="I63" s="112"/>
       <c r="J63" s="220" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F67" s="305" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G67" s="306"/>
     </row>
     <row r="68" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F68" s="322" t="s">
-        <v>213</v>
-      </c>
-      <c r="G68" s="323"/>
+      <c r="F68" s="337" t="s">
+        <v>210</v>
+      </c>
+      <c r="G68" s="338"/>
     </row>
     <row r="69" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F69" s="322" t="s">
-        <v>214</v>
-      </c>
-      <c r="G69" s="323"/>
+      <c r="F69" s="337" t="s">
+        <v>211</v>
+      </c>
+      <c r="G69" s="338"/>
     </row>
     <row r="70" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F70" s="307" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G70" s="308"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
     <mergeCell ref="F68:G68"/>
     <mergeCell ref="F69:G69"/>
     <mergeCell ref="D48:F48"/>
@@ -5822,6 +5839,42 @@
     <mergeCell ref="G63:H63"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B53:F53"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.27559055118110237" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.15748031496062992"/>
@@ -5836,8 +5889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IO81"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:I12"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A53" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5889,7 +5942,7 @@
       <c r="M2" s="5"/>
       <c r="X2" s="5" t="str">
         <f>RekAdm!H2</f>
-        <v>No.:     .BAEAT/      /     /</v>
+        <v>No.: #nomor#</v>
       </c>
     </row>
     <row r="3" spans="2:24" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -5905,7 +5958,7 @@
       <c r="M3" s="5"/>
       <c r="X3" s="5" t="str">
         <f>RekAdm!H3</f>
-        <v>Tanggal :</v>
+        <v>Tanggal : #tanggal#</v>
       </c>
     </row>
     <row r="4" spans="2:24" s="4" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5922,87 +5975,87 @@
       <c r="X4" s="5"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="369" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" s="369"/>
-      <c r="D5" s="369"/>
-      <c r="E5" s="369"/>
-      <c r="F5" s="369"/>
-      <c r="G5" s="369"/>
-      <c r="H5" s="369"/>
-      <c r="I5" s="369"/>
-      <c r="J5" s="369"/>
-      <c r="K5" s="369"/>
-      <c r="L5" s="369"/>
-      <c r="M5" s="369"/>
-      <c r="N5" s="369"/>
-      <c r="O5" s="369"/>
-      <c r="P5" s="369"/>
-      <c r="Q5" s="369"/>
-      <c r="R5" s="369"/>
-      <c r="S5" s="369"/>
-      <c r="T5" s="369"/>
-      <c r="U5" s="369"/>
-      <c r="V5" s="369"/>
-      <c r="W5" s="369"/>
-      <c r="X5" s="369"/>
+      <c r="B5" s="350" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="350"/>
+      <c r="D5" s="350"/>
+      <c r="E5" s="350"/>
+      <c r="F5" s="350"/>
+      <c r="G5" s="350"/>
+      <c r="H5" s="350"/>
+      <c r="I5" s="350"/>
+      <c r="J5" s="350"/>
+      <c r="K5" s="350"/>
+      <c r="L5" s="350"/>
+      <c r="M5" s="350"/>
+      <c r="N5" s="350"/>
+      <c r="O5" s="350"/>
+      <c r="P5" s="350"/>
+      <c r="Q5" s="350"/>
+      <c r="R5" s="350"/>
+      <c r="S5" s="350"/>
+      <c r="T5" s="350"/>
+      <c r="U5" s="350"/>
+      <c r="V5" s="350"/>
+      <c r="W5" s="350"/>
+      <c r="X5" s="350"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B6" s="369" t="str">
+      <c r="B6" s="350" t="str">
         <f>RekAdm!B6</f>
-        <v>PEKERJAAN ............................................................</v>
-      </c>
-      <c r="C6" s="369"/>
-      <c r="D6" s="369"/>
-      <c r="E6" s="369"/>
-      <c r="F6" s="369"/>
-      <c r="G6" s="369"/>
-      <c r="H6" s="369"/>
-      <c r="I6" s="369"/>
-      <c r="J6" s="369"/>
-      <c r="K6" s="369"/>
-      <c r="L6" s="369"/>
-      <c r="M6" s="369"/>
-      <c r="N6" s="369"/>
-      <c r="O6" s="369"/>
-      <c r="P6" s="369"/>
-      <c r="Q6" s="369"/>
-      <c r="R6" s="369"/>
-      <c r="S6" s="369"/>
-      <c r="T6" s="369"/>
-      <c r="U6" s="369"/>
-      <c r="V6" s="369"/>
-      <c r="W6" s="369"/>
-      <c r="X6" s="369"/>
+        <v>PEKERJAAN #namapengadaan#</v>
+      </c>
+      <c r="C6" s="350"/>
+      <c r="D6" s="350"/>
+      <c r="E6" s="350"/>
+      <c r="F6" s="350"/>
+      <c r="G6" s="350"/>
+      <c r="H6" s="350"/>
+      <c r="I6" s="350"/>
+      <c r="J6" s="350"/>
+      <c r="K6" s="350"/>
+      <c r="L6" s="350"/>
+      <c r="M6" s="350"/>
+      <c r="N6" s="350"/>
+      <c r="O6" s="350"/>
+      <c r="P6" s="350"/>
+      <c r="Q6" s="350"/>
+      <c r="R6" s="350"/>
+      <c r="S6" s="350"/>
+      <c r="T6" s="350"/>
+      <c r="U6" s="350"/>
+      <c r="V6" s="350"/>
+      <c r="W6" s="350"/>
+      <c r="X6" s="350"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B7" s="369" t="str">
+      <c r="B7" s="350" t="str">
         <f>RekAdm!B7</f>
         <v>PT PLN (PERSERO) KANTOR PUSAT</v>
       </c>
-      <c r="C7" s="369"/>
-      <c r="D7" s="369"/>
-      <c r="E7" s="369"/>
-      <c r="F7" s="369"/>
-      <c r="G7" s="369"/>
-      <c r="H7" s="369"/>
-      <c r="I7" s="369"/>
-      <c r="J7" s="369"/>
-      <c r="K7" s="369"/>
-      <c r="L7" s="369"/>
-      <c r="M7" s="369"/>
-      <c r="N7" s="369"/>
-      <c r="O7" s="369"/>
-      <c r="P7" s="369"/>
-      <c r="Q7" s="369"/>
-      <c r="R7" s="369"/>
-      <c r="S7" s="369"/>
-      <c r="T7" s="369"/>
-      <c r="U7" s="369"/>
-      <c r="V7" s="369"/>
-      <c r="W7" s="369"/>
-      <c r="X7" s="369"/>
+      <c r="C7" s="350"/>
+      <c r="D7" s="350"/>
+      <c r="E7" s="350"/>
+      <c r="F7" s="350"/>
+      <c r="G7" s="350"/>
+      <c r="H7" s="350"/>
+      <c r="I7" s="350"/>
+      <c r="J7" s="350"/>
+      <c r="K7" s="350"/>
+      <c r="L7" s="350"/>
+      <c r="M7" s="350"/>
+      <c r="N7" s="350"/>
+      <c r="O7" s="350"/>
+      <c r="P7" s="350"/>
+      <c r="Q7" s="350"/>
+      <c r="R7" s="350"/>
+      <c r="S7" s="350"/>
+      <c r="T7" s="350"/>
+      <c r="U7" s="350"/>
+      <c r="V7" s="350"/>
+      <c r="W7" s="350"/>
+      <c r="X7" s="350"/>
     </row>
     <row r="8" spans="2:24" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K8" s="225"/>
@@ -6021,162 +6074,162 @@
       <c r="X8" s="270"/>
     </row>
     <row r="9" spans="2:24" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="360" t="s">
+      <c r="B9" s="351" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="361" t="s">
-        <v>233</v>
-      </c>
-      <c r="D9" s="362"/>
-      <c r="E9" s="362"/>
-      <c r="F9" s="362"/>
-      <c r="G9" s="362"/>
-      <c r="H9" s="362"/>
-      <c r="I9" s="363"/>
-      <c r="J9" s="351" t="s">
-        <v>111</v>
-      </c>
-      <c r="K9" s="355" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="356"/>
-      <c r="M9" s="356"/>
-      <c r="N9" s="356"/>
-      <c r="O9" s="356"/>
-      <c r="P9" s="356"/>
-      <c r="Q9" s="356"/>
-      <c r="R9" s="356"/>
-      <c r="S9" s="356"/>
-      <c r="T9" s="356"/>
-      <c r="U9" s="356"/>
-      <c r="V9" s="356"/>
-      <c r="W9" s="356"/>
-      <c r="X9" s="356"/>
+      <c r="C9" s="352" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" s="353"/>
+      <c r="E9" s="353"/>
+      <c r="F9" s="353"/>
+      <c r="G9" s="353"/>
+      <c r="H9" s="353"/>
+      <c r="I9" s="354"/>
+      <c r="J9" s="361" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="363" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="364"/>
+      <c r="M9" s="364"/>
+      <c r="N9" s="364"/>
+      <c r="O9" s="364"/>
+      <c r="P9" s="364"/>
+      <c r="Q9" s="364"/>
+      <c r="R9" s="364"/>
+      <c r="S9" s="364"/>
+      <c r="T9" s="364"/>
+      <c r="U9" s="364"/>
+      <c r="V9" s="364"/>
+      <c r="W9" s="364"/>
+      <c r="X9" s="364"/>
     </row>
     <row r="10" spans="2:24" s="78" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="360"/>
-      <c r="C10" s="364"/>
-      <c r="D10" s="362"/>
-      <c r="E10" s="362"/>
-      <c r="F10" s="362"/>
-      <c r="G10" s="362"/>
-      <c r="H10" s="362"/>
-      <c r="I10" s="363"/>
-      <c r="J10" s="351"/>
-      <c r="K10" s="352" t="e">
+      <c r="B10" s="351"/>
+      <c r="C10" s="355"/>
+      <c r="D10" s="353"/>
+      <c r="E10" s="353"/>
+      <c r="F10" s="353"/>
+      <c r="G10" s="353"/>
+      <c r="H10" s="353"/>
+      <c r="I10" s="354"/>
+      <c r="J10" s="361"/>
+      <c r="K10" s="362" t="e">
         <f>+Adm!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L10" s="353"/>
-      <c r="M10" s="354" t="e">
+      <c r="L10" s="345"/>
+      <c r="M10" s="344" t="e">
         <f>+Adm!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="N10" s="353"/>
-      <c r="O10" s="354" t="str">
+      <c r="N10" s="345"/>
+      <c r="O10" s="344" t="str">
         <f>Adm!G10</f>
         <v>PT. .............</v>
       </c>
-      <c r="P10" s="353"/>
-      <c r="Q10" s="354" t="e">
+      <c r="P10" s="345"/>
+      <c r="Q10" s="344" t="e">
         <f>Adm!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="R10" s="353"/>
-      <c r="S10" s="354" t="str">
+      <c r="R10" s="345"/>
+      <c r="S10" s="344" t="str">
         <f>Adm!H10</f>
         <v>PT. .............</v>
       </c>
-      <c r="T10" s="353"/>
-      <c r="U10" s="354" t="str">
+      <c r="T10" s="345"/>
+      <c r="U10" s="344" t="str">
         <f>Adm!I10</f>
         <v>PT. ...............</v>
       </c>
-      <c r="V10" s="353"/>
-      <c r="W10" s="354" t="str">
+      <c r="V10" s="345"/>
+      <c r="W10" s="344" t="str">
         <f>Adm!J10</f>
         <v>PT. ..............</v>
       </c>
-      <c r="X10" s="359"/>
+      <c r="X10" s="349"/>
     </row>
     <row r="11" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="360"/>
-      <c r="C11" s="364"/>
-      <c r="D11" s="362"/>
-      <c r="E11" s="362"/>
-      <c r="F11" s="362"/>
-      <c r="G11" s="362"/>
-      <c r="H11" s="362"/>
-      <c r="I11" s="363"/>
-      <c r="J11" s="351"/>
-      <c r="K11" s="357" t="s">
+      <c r="B11" s="351"/>
+      <c r="C11" s="355"/>
+      <c r="D11" s="353"/>
+      <c r="E11" s="353"/>
+      <c r="F11" s="353"/>
+      <c r="G11" s="353"/>
+      <c r="H11" s="353"/>
+      <c r="I11" s="354"/>
+      <c r="J11" s="361"/>
+      <c r="K11" s="347" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" s="348"/>
+      <c r="M11" s="348"/>
+      <c r="N11" s="348"/>
+      <c r="O11" s="348"/>
+      <c r="P11" s="348"/>
+      <c r="Q11" s="348"/>
+      <c r="R11" s="348"/>
+      <c r="S11" s="348"/>
+      <c r="T11" s="348"/>
+      <c r="U11" s="348"/>
+      <c r="V11" s="348"/>
+      <c r="W11" s="348"/>
+      <c r="X11" s="348"/>
+    </row>
+    <row r="12" spans="2:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="351"/>
+      <c r="C12" s="355"/>
+      <c r="D12" s="353"/>
+      <c r="E12" s="353"/>
+      <c r="F12" s="353"/>
+      <c r="G12" s="353"/>
+      <c r="H12" s="353"/>
+      <c r="I12" s="354"/>
+      <c r="J12" s="361"/>
+      <c r="K12" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="L11" s="358"/>
-      <c r="M11" s="358"/>
-      <c r="N11" s="358"/>
-      <c r="O11" s="358"/>
-      <c r="P11" s="358"/>
-      <c r="Q11" s="358"/>
-      <c r="R11" s="358"/>
-      <c r="S11" s="358"/>
-      <c r="T11" s="358"/>
-      <c r="U11" s="358"/>
-      <c r="V11" s="358"/>
-      <c r="W11" s="358"/>
-      <c r="X11" s="358"/>
-    </row>
-    <row r="12" spans="2:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="360"/>
-      <c r="C12" s="364"/>
-      <c r="D12" s="362"/>
-      <c r="E12" s="362"/>
-      <c r="F12" s="362"/>
-      <c r="G12" s="362"/>
-      <c r="H12" s="362"/>
-      <c r="I12" s="363"/>
-      <c r="J12" s="351"/>
-      <c r="K12" s="79" t="s">
-        <v>113</v>
-      </c>
       <c r="L12" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M12" s="80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N12" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O12" s="80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P12" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q12" s="80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R12" s="81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S12" s="80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T12" s="81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U12" s="80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V12" s="81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W12" s="80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X12" s="81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="2:24" s="82" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6205,16 +6258,16 @@
       <c r="X13" s="87"/>
     </row>
     <row r="14" spans="2:24" s="88" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="365" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="366"/>
-      <c r="D14" s="366"/>
-      <c r="E14" s="366"/>
-      <c r="F14" s="366"/>
-      <c r="G14" s="366"/>
-      <c r="H14" s="366"/>
-      <c r="I14" s="367"/>
+      <c r="B14" s="356" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="357"/>
+      <c r="D14" s="357"/>
+      <c r="E14" s="357"/>
+      <c r="F14" s="357"/>
+      <c r="G14" s="357"/>
+      <c r="H14" s="357"/>
+      <c r="I14" s="358"/>
       <c r="J14" s="89"/>
       <c r="K14" s="90"/>
       <c r="L14" s="91" t="e">
@@ -6272,15 +6325,15 @@
       <c r="B16" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="368" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="368"/>
-      <c r="E16" s="368"/>
-      <c r="F16" s="368"/>
-      <c r="G16" s="368"/>
-      <c r="H16" s="368"/>
-      <c r="I16" s="368"/>
+      <c r="C16" s="359" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="359"/>
+      <c r="E16" s="359"/>
+      <c r="F16" s="359"/>
+      <c r="G16" s="359"/>
+      <c r="H16" s="359"/>
+      <c r="I16" s="359"/>
       <c r="J16" s="104"/>
       <c r="K16" s="105"/>
       <c r="L16" s="106">
@@ -6321,10 +6374,10 @@
     <row r="17" spans="2:40" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="109"/>
       <c r="C17" s="114" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E17" s="115"/>
       <c r="F17" s="115"/>
@@ -6360,10 +6413,10 @@
     <row r="18" spans="2:40" s="112" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="113"/>
       <c r="C18" s="114" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18" s="115"/>
       <c r="F18" s="115"/>
@@ -6399,10 +6452,10 @@
     <row r="19" spans="2:40" s="112" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="113"/>
       <c r="C19" s="114" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E19" s="115"/>
       <c r="F19" s="115"/>
@@ -6438,10 +6491,10 @@
     <row r="20" spans="2:40" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="109"/>
       <c r="C20" s="114" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="115" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E20" s="115"/>
       <c r="F20" s="115"/>
@@ -6503,12 +6556,12 @@
       <c r="B22" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="350" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" s="350"/>
-      <c r="E22" s="350"/>
-      <c r="F22" s="350"/>
+      <c r="C22" s="360" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="360"/>
+      <c r="E22" s="360"/>
+      <c r="F22" s="360"/>
       <c r="G22" s="125"/>
       <c r="H22" s="125"/>
       <c r="I22" s="126"/>
@@ -6540,10 +6593,10 @@
     <row r="23" spans="2:40" s="112" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="113"/>
       <c r="C23" s="114" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" s="115" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E23" s="115"/>
       <c r="F23" s="115"/>
@@ -6579,10 +6632,10 @@
     <row r="24" spans="2:40" s="112" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="113"/>
       <c r="C24" s="114" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="115" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E24" s="115"/>
       <c r="F24" s="115"/>
@@ -6644,12 +6697,12 @@
       <c r="B26" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="350" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="350"/>
-      <c r="E26" s="350"/>
-      <c r="F26" s="350"/>
+      <c r="C26" s="360" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="360"/>
+      <c r="E26" s="360"/>
+      <c r="F26" s="360"/>
       <c r="G26" s="125"/>
       <c r="H26" s="125"/>
       <c r="I26" s="126"/>
@@ -6678,10 +6731,10 @@
     <row r="27" spans="2:40" s="112" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="113"/>
       <c r="C27" s="114" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D27" s="115" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E27" s="115"/>
       <c r="F27" s="115"/>
@@ -6743,10 +6796,10 @@
     <row r="28" spans="2:40" s="112" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="113"/>
       <c r="C28" s="114" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="115" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E28" s="115"/>
       <c r="F28" s="115"/>
@@ -6808,10 +6861,10 @@
     <row r="29" spans="2:40" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="109"/>
       <c r="C29" s="114" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" s="115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E29" s="115"/>
       <c r="F29" s="115"/>
@@ -6901,7 +6954,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="130" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D30" s="125"/>
       <c r="E30" s="125"/>
@@ -6934,13 +6987,13 @@
     <row r="31" spans="2:40" s="140" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="141"/>
       <c r="C31" s="114" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="342" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31" s="342"/>
-      <c r="F31" s="342"/>
+        <v>48</v>
+      </c>
+      <c r="D31" s="365" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="365"/>
+      <c r="F31" s="365"/>
       <c r="G31" s="121"/>
       <c r="H31" s="121"/>
       <c r="I31" s="122"/>
@@ -6973,13 +7026,13 @@
     <row r="32" spans="2:40" s="140" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="141"/>
       <c r="C32" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="342" t="s">
-        <v>128</v>
-      </c>
-      <c r="E32" s="342"/>
-      <c r="F32" s="342"/>
+        <v>50</v>
+      </c>
+      <c r="D32" s="365" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="365"/>
+      <c r="F32" s="365"/>
       <c r="G32" s="121"/>
       <c r="H32" s="121"/>
       <c r="I32" s="122"/>
@@ -7012,13 +7065,13 @@
     <row r="33" spans="2:24" s="140" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="141"/>
       <c r="C33" s="114" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="342" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33" s="342"/>
-      <c r="F33" s="342"/>
+        <v>52</v>
+      </c>
+      <c r="D33" s="365" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="365"/>
+      <c r="F33" s="365"/>
       <c r="G33" s="121"/>
       <c r="H33" s="121"/>
       <c r="I33" s="122"/>
@@ -7051,13 +7104,13 @@
     <row r="34" spans="2:24" s="140" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="141"/>
       <c r="C34" s="114" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="342" t="s">
-        <v>181</v>
-      </c>
-      <c r="E34" s="342"/>
-      <c r="F34" s="342"/>
+        <v>54</v>
+      </c>
+      <c r="D34" s="365" t="s">
+        <v>178</v>
+      </c>
+      <c r="E34" s="365"/>
+      <c r="F34" s="365"/>
       <c r="G34" s="121"/>
       <c r="H34" s="121"/>
       <c r="I34" s="122"/>
@@ -7090,13 +7143,13 @@
     <row r="35" spans="2:24" s="140" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="141"/>
       <c r="C35" s="114" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="342" t="s">
-        <v>182</v>
-      </c>
-      <c r="E35" s="342"/>
-      <c r="F35" s="342"/>
+        <v>56</v>
+      </c>
+      <c r="D35" s="365" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" s="365"/>
+      <c r="F35" s="365"/>
       <c r="G35" s="121"/>
       <c r="H35" s="121"/>
       <c r="I35" s="122"/>
@@ -7156,7 +7209,7 @@
         <v>10</v>
       </c>
       <c r="C37" s="130" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D37" s="125"/>
       <c r="E37" s="125"/>
@@ -7188,14 +7241,14 @@
     </row>
     <row r="38" spans="2:24" s="133" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="268"/>
-      <c r="C38" s="344" t="s">
-        <v>184</v>
-      </c>
-      <c r="D38" s="345"/>
-      <c r="E38" s="345"/>
-      <c r="F38" s="345"/>
-      <c r="G38" s="345"/>
-      <c r="H38" s="345"/>
+      <c r="C38" s="370" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" s="371"/>
+      <c r="E38" s="371"/>
+      <c r="F38" s="371"/>
+      <c r="G38" s="371"/>
+      <c r="H38" s="371"/>
       <c r="I38" s="134"/>
       <c r="J38" s="135"/>
       <c r="K38" s="136"/>
@@ -7216,16 +7269,16 @@
     <row r="39" spans="2:24" s="140" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="141"/>
       <c r="C39" s="114" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="342" t="s">
-        <v>185</v>
-      </c>
-      <c r="E39" s="342"/>
-      <c r="F39" s="342"/>
-      <c r="G39" s="342"/>
-      <c r="H39" s="342"/>
-      <c r="I39" s="343"/>
+        <v>48</v>
+      </c>
+      <c r="D39" s="365" t="s">
+        <v>182</v>
+      </c>
+      <c r="E39" s="365"/>
+      <c r="F39" s="365"/>
+      <c r="G39" s="365"/>
+      <c r="H39" s="365"/>
+      <c r="I39" s="369"/>
       <c r="J39" s="117"/>
       <c r="K39" s="118">
         <v>100</v>
@@ -7255,16 +7308,16 @@
     <row r="40" spans="2:24" s="140" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="141"/>
       <c r="C40" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="342" t="s">
-        <v>186</v>
-      </c>
-      <c r="E40" s="342"/>
-      <c r="F40" s="342"/>
-      <c r="G40" s="342"/>
-      <c r="H40" s="342"/>
-      <c r="I40" s="343"/>
+        <v>50</v>
+      </c>
+      <c r="D40" s="365" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" s="365"/>
+      <c r="F40" s="365"/>
+      <c r="G40" s="365"/>
+      <c r="H40" s="365"/>
+      <c r="I40" s="369"/>
       <c r="J40" s="117"/>
       <c r="K40" s="118">
         <v>100</v>
@@ -7318,14 +7371,14 @@
     </row>
     <row r="42" spans="2:24" s="133" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="268"/>
-      <c r="C42" s="344" t="s">
-        <v>187</v>
-      </c>
-      <c r="D42" s="345"/>
-      <c r="E42" s="345"/>
-      <c r="F42" s="345"/>
-      <c r="G42" s="345"/>
-      <c r="H42" s="345"/>
+      <c r="C42" s="370" t="s">
+        <v>184</v>
+      </c>
+      <c r="D42" s="371"/>
+      <c r="E42" s="371"/>
+      <c r="F42" s="371"/>
+      <c r="G42" s="371"/>
+      <c r="H42" s="371"/>
       <c r="I42" s="134"/>
       <c r="J42" s="135"/>
       <c r="K42" s="136"/>
@@ -7346,16 +7399,16 @@
     <row r="43" spans="2:24" s="140" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="141"/>
       <c r="C43" s="114" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="342" t="s">
-        <v>188</v>
-      </c>
-      <c r="E43" s="342"/>
-      <c r="F43" s="342"/>
-      <c r="G43" s="342"/>
-      <c r="H43" s="342"/>
-      <c r="I43" s="343"/>
+        <v>48</v>
+      </c>
+      <c r="D43" s="365" t="s">
+        <v>185</v>
+      </c>
+      <c r="E43" s="365"/>
+      <c r="F43" s="365"/>
+      <c r="G43" s="365"/>
+      <c r="H43" s="365"/>
+      <c r="I43" s="369"/>
       <c r="J43" s="117"/>
       <c r="K43" s="118">
         <v>100</v>
@@ -7385,16 +7438,16 @@
     <row r="44" spans="2:24" s="140" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="141"/>
       <c r="C44" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="342" t="s">
-        <v>189</v>
-      </c>
-      <c r="E44" s="342"/>
-      <c r="F44" s="342"/>
-      <c r="G44" s="342"/>
-      <c r="H44" s="342"/>
-      <c r="I44" s="343"/>
+        <v>50</v>
+      </c>
+      <c r="D44" s="365" t="s">
+        <v>186</v>
+      </c>
+      <c r="E44" s="365"/>
+      <c r="F44" s="365"/>
+      <c r="G44" s="365"/>
+      <c r="H44" s="365"/>
+      <c r="I44" s="369"/>
       <c r="J44" s="284"/>
       <c r="K44" s="118">
         <v>100</v>
@@ -7424,16 +7477,16 @@
     <row r="45" spans="2:24" s="140" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="141"/>
       <c r="C45" s="114" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="342" t="s">
-        <v>190</v>
-      </c>
-      <c r="E45" s="342"/>
-      <c r="F45" s="342"/>
-      <c r="G45" s="342"/>
-      <c r="H45" s="342"/>
-      <c r="I45" s="343"/>
+        <v>52</v>
+      </c>
+      <c r="D45" s="365" t="s">
+        <v>187</v>
+      </c>
+      <c r="E45" s="365"/>
+      <c r="F45" s="365"/>
+      <c r="G45" s="365"/>
+      <c r="H45" s="365"/>
+      <c r="I45" s="369"/>
       <c r="J45" s="284"/>
       <c r="K45" s="118">
         <v>100</v>
@@ -7463,16 +7516,16 @@
     <row r="46" spans="2:24" s="140" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="141"/>
       <c r="C46" s="114" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="342" t="s">
-        <v>191</v>
-      </c>
-      <c r="E46" s="342"/>
-      <c r="F46" s="342"/>
-      <c r="G46" s="342"/>
-      <c r="H46" s="342"/>
-      <c r="I46" s="343"/>
+        <v>54</v>
+      </c>
+      <c r="D46" s="365" t="s">
+        <v>188</v>
+      </c>
+      <c r="E46" s="365"/>
+      <c r="F46" s="365"/>
+      <c r="G46" s="365"/>
+      <c r="H46" s="365"/>
+      <c r="I46" s="369"/>
       <c r="J46" s="284"/>
       <c r="K46" s="118">
         <v>100</v>
@@ -7502,16 +7555,16 @@
     <row r="47" spans="2:24" s="140" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="141"/>
       <c r="C47" s="114" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="342" t="s">
-        <v>192</v>
-      </c>
-      <c r="E47" s="342"/>
-      <c r="F47" s="342"/>
-      <c r="G47" s="342"/>
-      <c r="H47" s="342"/>
-      <c r="I47" s="343"/>
+        <v>56</v>
+      </c>
+      <c r="D47" s="365" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47" s="365"/>
+      <c r="F47" s="365"/>
+      <c r="G47" s="365"/>
+      <c r="H47" s="365"/>
+      <c r="I47" s="369"/>
       <c r="J47" s="284"/>
       <c r="K47" s="118">
         <v>100</v>
@@ -7541,16 +7594,16 @@
     <row r="48" spans="2:24" s="140" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="141"/>
       <c r="C48" s="114" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" s="342" t="s">
-        <v>193</v>
-      </c>
-      <c r="E48" s="342"/>
-      <c r="F48" s="342"/>
-      <c r="G48" s="342"/>
-      <c r="H48" s="342"/>
-      <c r="I48" s="343"/>
+        <v>58</v>
+      </c>
+      <c r="D48" s="365" t="s">
+        <v>190</v>
+      </c>
+      <c r="E48" s="365"/>
+      <c r="F48" s="365"/>
+      <c r="G48" s="365"/>
+      <c r="H48" s="365"/>
+      <c r="I48" s="369"/>
       <c r="J48" s="284"/>
       <c r="K48" s="118">
         <v>100</v>
@@ -7580,16 +7633,16 @@
     <row r="49" spans="2:24" s="140" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="141"/>
       <c r="C49" s="114" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="342" t="s">
-        <v>194</v>
-      </c>
-      <c r="E49" s="342"/>
-      <c r="F49" s="342"/>
-      <c r="G49" s="342"/>
-      <c r="H49" s="342"/>
-      <c r="I49" s="343"/>
+        <v>61</v>
+      </c>
+      <c r="D49" s="365" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" s="365"/>
+      <c r="F49" s="365"/>
+      <c r="G49" s="365"/>
+      <c r="H49" s="365"/>
+      <c r="I49" s="369"/>
       <c r="J49" s="284"/>
       <c r="K49" s="118">
         <v>100</v>
@@ -7619,16 +7672,16 @@
     <row r="50" spans="2:24" s="140" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="141"/>
       <c r="C50" s="114" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" s="342" t="s">
-        <v>195</v>
-      </c>
-      <c r="E50" s="342"/>
-      <c r="F50" s="342"/>
-      <c r="G50" s="342"/>
-      <c r="H50" s="342"/>
-      <c r="I50" s="343"/>
+        <v>63</v>
+      </c>
+      <c r="D50" s="365" t="s">
+        <v>192</v>
+      </c>
+      <c r="E50" s="365"/>
+      <c r="F50" s="365"/>
+      <c r="G50" s="365"/>
+      <c r="H50" s="365"/>
+      <c r="I50" s="369"/>
       <c r="J50" s="117"/>
       <c r="K50" s="118">
         <v>100</v>
@@ -7681,32 +7734,32 @@
       <c r="X51" s="149"/>
     </row>
     <row r="52" spans="2:24" s="151" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="347" t="s">
-        <v>130</v>
-      </c>
-      <c r="C52" s="347"/>
-      <c r="D52" s="347"/>
-      <c r="E52" s="347"/>
-      <c r="F52" s="347"/>
-      <c r="G52" s="347"/>
-      <c r="H52" s="347"/>
-      <c r="I52" s="347"/>
-      <c r="J52" s="347"/>
-      <c r="K52" s="348" t="e">
+      <c r="B52" s="366" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="366"/>
+      <c r="D52" s="366"/>
+      <c r="E52" s="366"/>
+      <c r="F52" s="366"/>
+      <c r="G52" s="366"/>
+      <c r="H52" s="366"/>
+      <c r="I52" s="366"/>
+      <c r="J52" s="366"/>
+      <c r="K52" s="367" t="e">
         <f>IF(L14&gt;=70,"LULUS","GUGUR")</f>
         <v>#REF!</v>
       </c>
-      <c r="L52" s="348"/>
-      <c r="M52" s="348" t="e">
+      <c r="L52" s="367"/>
+      <c r="M52" s="367" t="e">
         <f>IF(N14&gt;=70,"LULUS","GUGUR")</f>
         <v>#REF!</v>
       </c>
-      <c r="N52" s="348"/>
-      <c r="O52" s="349" t="str">
+      <c r="N52" s="367"/>
+      <c r="O52" s="368" t="str">
         <f>IF(P14&gt;=70,"LULUS","GUGUR")</f>
         <v>GUGUR</v>
       </c>
-      <c r="P52" s="349"/>
+      <c r="P52" s="368"/>
       <c r="Q52" s="346" t="e">
         <f>IF(R14&gt;=70,"LULUS","GUGUR")</f>
         <v>#REF!</v>
@@ -7735,32 +7788,32 @@
       <c r="P54" s="65"/>
     </row>
     <row r="55" spans="2:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="O55" s="311" t="s">
+      <c r="O55" s="319" t="s">
+        <v>18</v>
+      </c>
+      <c r="P55" s="319"/>
+      <c r="Q55" s="319"/>
+      <c r="R55" s="319"/>
+      <c r="S55" s="319"/>
+      <c r="T55" s="319"/>
+      <c r="U55" s="319"/>
+      <c r="V55" s="319"/>
+      <c r="W55" s="319"/>
+      <c r="X55" s="319"/>
+    </row>
+    <row r="56" spans="2:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O56" s="319" t="s">
         <v>19</v>
       </c>
-      <c r="P55" s="311"/>
-      <c r="Q55" s="311"/>
-      <c r="R55" s="311"/>
-      <c r="S55" s="311"/>
-      <c r="T55" s="311"/>
-      <c r="U55" s="311"/>
-      <c r="V55" s="311"/>
-      <c r="W55" s="311"/>
-      <c r="X55" s="311"/>
-    </row>
-    <row r="56" spans="2:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="O56" s="311" t="s">
-        <v>20</v>
-      </c>
-      <c r="P56" s="311"/>
-      <c r="Q56" s="311"/>
-      <c r="R56" s="311"/>
-      <c r="S56" s="311"/>
-      <c r="T56" s="311"/>
-      <c r="U56" s="311"/>
-      <c r="V56" s="311"/>
-      <c r="W56" s="311"/>
-      <c r="X56" s="311"/>
+      <c r="P56" s="319"/>
+      <c r="Q56" s="319"/>
+      <c r="R56" s="319"/>
+      <c r="S56" s="319"/>
+      <c r="T56" s="319"/>
+      <c r="U56" s="319"/>
+      <c r="V56" s="319"/>
+      <c r="W56" s="319"/>
+      <c r="X56" s="319"/>
     </row>
     <row r="57" spans="2:24" s="4" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="58" spans="2:24" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7770,19 +7823,19 @@
       <c r="N58" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="O58" s="340" t="s">
-        <v>131</v>
-      </c>
-      <c r="P58" s="340"/>
-      <c r="Q58" s="340"/>
-      <c r="R58" s="340"/>
-      <c r="S58" s="340"/>
-      <c r="T58" s="340"/>
-      <c r="U58" s="340"/>
-      <c r="W58" s="370" t="s">
-        <v>204</v>
-      </c>
-      <c r="X58" s="370"/>
+      <c r="O58" s="323" t="s">
+        <v>130</v>
+      </c>
+      <c r="P58" s="323"/>
+      <c r="Q58" s="323"/>
+      <c r="R58" s="323"/>
+      <c r="S58" s="323"/>
+      <c r="T58" s="323"/>
+      <c r="U58" s="323"/>
+      <c r="W58" s="342" t="s">
+        <v>201</v>
+      </c>
+      <c r="X58" s="342"/>
     </row>
     <row r="59" spans="2:24" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J59" s="271" t="s">
@@ -7791,19 +7844,19 @@
       <c r="N59" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="O59" s="340" t="s">
-        <v>132</v>
-      </c>
-      <c r="P59" s="340"/>
-      <c r="Q59" s="340"/>
-      <c r="R59" s="340"/>
-      <c r="S59" s="340"/>
-      <c r="T59" s="340"/>
-      <c r="U59" s="340"/>
-      <c r="V59" s="371" t="s">
-        <v>204</v>
-      </c>
-      <c r="W59" s="371"/>
+      <c r="O59" s="323" t="s">
+        <v>131</v>
+      </c>
+      <c r="P59" s="323"/>
+      <c r="Q59" s="323"/>
+      <c r="R59" s="323"/>
+      <c r="S59" s="323"/>
+      <c r="T59" s="323"/>
+      <c r="U59" s="323"/>
+      <c r="V59" s="343" t="s">
+        <v>201</v>
+      </c>
+      <c r="W59" s="343"/>
     </row>
     <row r="60" spans="2:24" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J60" s="271" t="s">
@@ -7812,19 +7865,19 @@
       <c r="N60" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="O60" s="340" t="s">
-        <v>133</v>
-      </c>
-      <c r="P60" s="340"/>
-      <c r="Q60" s="340"/>
-      <c r="R60" s="340"/>
-      <c r="S60" s="340"/>
-      <c r="T60" s="340"/>
-      <c r="U60" s="340"/>
-      <c r="W60" s="370" t="s">
-        <v>204</v>
-      </c>
-      <c r="X60" s="370"/>
+      <c r="O60" s="323" t="s">
+        <v>132</v>
+      </c>
+      <c r="P60" s="323"/>
+      <c r="Q60" s="323"/>
+      <c r="R60" s="323"/>
+      <c r="S60" s="323"/>
+      <c r="T60" s="323"/>
+      <c r="U60" s="323"/>
+      <c r="W60" s="342" t="s">
+        <v>201</v>
+      </c>
+      <c r="X60" s="342"/>
     </row>
     <row r="61" spans="2:24" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J61" s="271" t="s">
@@ -7833,19 +7886,19 @@
       <c r="N61" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="O61" s="340" t="s">
-        <v>134</v>
-      </c>
-      <c r="P61" s="340"/>
-      <c r="Q61" s="340"/>
-      <c r="R61" s="340"/>
-      <c r="S61" s="340"/>
-      <c r="T61" s="340"/>
-      <c r="U61" s="340"/>
-      <c r="V61" s="371" t="s">
-        <v>204</v>
-      </c>
-      <c r="W61" s="371"/>
+      <c r="O61" s="323" t="s">
+        <v>133</v>
+      </c>
+      <c r="P61" s="323"/>
+      <c r="Q61" s="323"/>
+      <c r="R61" s="323"/>
+      <c r="S61" s="323"/>
+      <c r="T61" s="323"/>
+      <c r="U61" s="323"/>
+      <c r="V61" s="343" t="s">
+        <v>201</v>
+      </c>
+      <c r="W61" s="343"/>
     </row>
     <row r="62" spans="2:24" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J62" s="271" t="s">
@@ -7854,19 +7907,19 @@
       <c r="N62" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="O62" s="340" t="s">
-        <v>135</v>
-      </c>
-      <c r="P62" s="340"/>
-      <c r="Q62" s="340"/>
-      <c r="R62" s="340"/>
-      <c r="S62" s="340"/>
-      <c r="T62" s="340"/>
-      <c r="U62" s="340"/>
-      <c r="W62" s="370" t="s">
-        <v>204</v>
-      </c>
-      <c r="X62" s="370"/>
+      <c r="O62" s="323" t="s">
+        <v>134</v>
+      </c>
+      <c r="P62" s="323"/>
+      <c r="Q62" s="323"/>
+      <c r="R62" s="323"/>
+      <c r="S62" s="323"/>
+      <c r="T62" s="323"/>
+      <c r="U62" s="323"/>
+      <c r="W62" s="342" t="s">
+        <v>201</v>
+      </c>
+      <c r="X62" s="342"/>
     </row>
     <row r="63" spans="2:24" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J63" s="271" t="s">
@@ -7875,19 +7928,19 @@
       <c r="N63" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="O63" s="340" t="s">
-        <v>136</v>
-      </c>
-      <c r="P63" s="340"/>
-      <c r="Q63" s="340"/>
-      <c r="R63" s="340"/>
-      <c r="S63" s="340"/>
-      <c r="T63" s="340"/>
-      <c r="U63" s="340"/>
-      <c r="V63" s="371" t="s">
-        <v>204</v>
-      </c>
-      <c r="W63" s="371"/>
+      <c r="O63" s="323" t="s">
+        <v>135</v>
+      </c>
+      <c r="P63" s="323"/>
+      <c r="Q63" s="323"/>
+      <c r="R63" s="323"/>
+      <c r="S63" s="323"/>
+      <c r="T63" s="323"/>
+      <c r="U63" s="323"/>
+      <c r="V63" s="343" t="s">
+        <v>201</v>
+      </c>
+      <c r="W63" s="343"/>
     </row>
     <row r="64" spans="2:24" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J64" s="271" t="s">
@@ -7896,19 +7949,19 @@
       <c r="N64" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="O64" s="340" t="s">
-        <v>137</v>
-      </c>
-      <c r="P64" s="340"/>
-      <c r="Q64" s="340"/>
-      <c r="R64" s="340"/>
-      <c r="S64" s="340"/>
-      <c r="T64" s="340"/>
-      <c r="U64" s="340"/>
-      <c r="W64" s="370" t="s">
-        <v>204</v>
-      </c>
-      <c r="X64" s="370"/>
+      <c r="O64" s="323" t="s">
+        <v>136</v>
+      </c>
+      <c r="P64" s="323"/>
+      <c r="Q64" s="323"/>
+      <c r="R64" s="323"/>
+      <c r="S64" s="323"/>
+      <c r="T64" s="323"/>
+      <c r="U64" s="323"/>
+      <c r="W64" s="342" t="s">
+        <v>201</v>
+      </c>
+      <c r="X64" s="342"/>
     </row>
     <row r="65" spans="6:16" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F65" s="37"/>
@@ -8039,24 +8092,27 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="O64:U64"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="W60:X60"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="W62:X62"/>
-    <mergeCell ref="V63:W63"/>
-    <mergeCell ref="W64:X64"/>
-    <mergeCell ref="O58:U58"/>
-    <mergeCell ref="O59:U59"/>
-    <mergeCell ref="O62:U62"/>
-    <mergeCell ref="O63:U63"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="O55:X55"/>
-    <mergeCell ref="O56:X56"/>
-    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D48:I48"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="D49:I49"/>
+    <mergeCell ref="D50:I50"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D33:F33"/>
     <mergeCell ref="B5:X5"/>
     <mergeCell ref="B6:X6"/>
     <mergeCell ref="B7:X7"/>
@@ -8073,32 +8129,29 @@
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="K9:X9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="O55:X55"/>
+    <mergeCell ref="O56:X56"/>
+    <mergeCell ref="Q52:R52"/>
     <mergeCell ref="K11:X11"/>
     <mergeCell ref="W10:X10"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D33:F33"/>
     <mergeCell ref="S52:T52"/>
     <mergeCell ref="U52:V52"/>
     <mergeCell ref="W52:X52"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="D49:I49"/>
-    <mergeCell ref="D50:I50"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D48:I48"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="O64:U64"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="W60:X60"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="W62:X62"/>
+    <mergeCell ref="V63:W63"/>
+    <mergeCell ref="W64:X64"/>
+    <mergeCell ref="O58:U58"/>
+    <mergeCell ref="O59:U59"/>
+    <mergeCell ref="O62:U62"/>
+    <mergeCell ref="O63:U63"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51" right="0.15748031496062992" top="0.15748031496062992" bottom="0.39370078740157483" header="0.23622047244094491" footer="0.15748031496062992"/>
@@ -8116,8 +8169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J48"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="87" zoomScaleSheetLayoutView="87" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="87" zoomScaleSheetLayoutView="87" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8150,7 +8203,7 @@
       <c r="G3" s="77"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6" t="s">
-        <v>138</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
@@ -8160,7 +8213,7 @@
       <c r="G4" s="77"/>
       <c r="H4" s="5"/>
       <c r="I4" s="6" t="s">
-        <v>139</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8172,42 +8225,42 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="2:9" s="72" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="369" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="369"/>
-      <c r="D6" s="369"/>
-      <c r="E6" s="369"/>
-      <c r="F6" s="369"/>
-      <c r="G6" s="369"/>
-      <c r="H6" s="369"/>
-      <c r="I6" s="369"/>
+      <c r="B6" s="350" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="350"/>
+      <c r="D6" s="350"/>
+      <c r="E6" s="350"/>
+      <c r="F6" s="350"/>
+      <c r="G6" s="350"/>
+      <c r="H6" s="350"/>
+      <c r="I6" s="350"/>
     </row>
     <row r="7" spans="2:9" s="72" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="369" t="str">
+      <c r="B7" s="350" t="str">
         <f>+Adm!B6</f>
-        <v>PEKERJAAN.................................................................................................</v>
-      </c>
-      <c r="C7" s="369"/>
-      <c r="D7" s="369"/>
-      <c r="E7" s="369"/>
-      <c r="F7" s="369"/>
-      <c r="G7" s="369"/>
-      <c r="H7" s="369"/>
-      <c r="I7" s="369"/>
+        <v>PEKERJAAN #namapengadaan#</v>
+      </c>
+      <c r="C7" s="350"/>
+      <c r="D7" s="350"/>
+      <c r="E7" s="350"/>
+      <c r="F7" s="350"/>
+      <c r="G7" s="350"/>
+      <c r="H7" s="350"/>
+      <c r="I7" s="350"/>
     </row>
     <row r="8" spans="2:9" s="72" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="369" t="str">
+      <c r="B8" s="350" t="str">
         <f>+Adm!B7</f>
         <v>PT PLN (PERSERO) KANTOR PUSAT</v>
       </c>
-      <c r="C8" s="369"/>
-      <c r="D8" s="369"/>
-      <c r="E8" s="369"/>
-      <c r="F8" s="369"/>
-      <c r="G8" s="369"/>
-      <c r="H8" s="369"/>
-      <c r="I8" s="369"/>
+      <c r="C8" s="350"/>
+      <c r="D8" s="350"/>
+      <c r="E8" s="350"/>
+      <c r="F8" s="350"/>
+      <c r="G8" s="350"/>
+      <c r="H8" s="350"/>
+      <c r="I8" s="350"/>
     </row>
     <row r="9" spans="2:9" s="72" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="73"/>
@@ -8220,28 +8273,28 @@
       <c r="I9" s="73"/>
     </row>
     <row r="10" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="375" t="s">
+      <c r="B10" s="373" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="376" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="377" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" s="377"/>
-      <c r="F10" s="378" t="s">
+      <c r="C10" s="374" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="375" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="375"/>
+      <c r="F10" s="376" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="378"/>
-      <c r="H10" s="378"/>
-      <c r="I10" s="378"/>
+      <c r="G10" s="376"/>
+      <c r="H10" s="376"/>
+      <c r="I10" s="376"/>
     </row>
     <row r="11" spans="2:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="375"/>
-      <c r="C11" s="376"/>
-      <c r="D11" s="377"/>
-      <c r="E11" s="377"/>
+      <c r="B11" s="373"/>
+      <c r="C11" s="374"/>
+      <c r="D11" s="375"/>
+      <c r="E11" s="375"/>
       <c r="F11" s="156">
         <f>RekAdm!C12</f>
         <v>0</v>
@@ -8278,7 +8331,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="166" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F14" s="167"/>
       <c r="G14" s="168"/>
@@ -8298,7 +8351,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="166" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F16" s="167"/>
       <c r="G16" s="168"/>
@@ -8318,7 +8371,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="166" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F18" s="172">
         <v>3231800000</v>
@@ -8334,7 +8387,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="166" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F19" s="175" t="e">
         <f>+F18/$D$14*100%</f>
@@ -8360,7 +8413,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="166" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F21" s="178">
         <f>ROUNDUP(Tek!L13,0)</f>
@@ -8379,7 +8432,7 @@
     <row r="22" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="165"/>
       <c r="C22" s="166" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F22" s="178" t="e">
         <f>ROUNDUP(Tek!L14,0)</f>
@@ -8400,7 +8453,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="166" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F23" s="184">
         <f>+$D$16/F18*100</f>
@@ -8426,7 +8479,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="166" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D25" s="190">
         <v>0.7</v>
@@ -8448,7 +8501,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="166" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D26" s="190">
         <v>0.3</v>
@@ -8474,11 +8527,11 @@
       <c r="I27" s="183"/>
     </row>
     <row r="28" spans="2:9" s="192" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="372" t="s">
+      <c r="B28" s="377" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="166" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D28" s="154"/>
       <c r="E28" s="154"/>
@@ -8494,12 +8547,12 @@
       <c r="I28" s="195"/>
     </row>
     <row r="29" spans="2:9" s="192" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="372"/>
+      <c r="B29" s="377"/>
       <c r="C29" s="196" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D29" s="197" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E29" s="197"/>
       <c r="F29" s="198" t="e">
@@ -8535,11 +8588,11 @@
       <c r="I31" s="207"/>
     </row>
     <row r="32" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="373" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="373"/>
-      <c r="D32" s="373"/>
+      <c r="B32" s="378" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="378"/>
+      <c r="D32" s="378"/>
       <c r="E32" s="63"/>
       <c r="F32" s="208" t="e">
         <f>IF(OR(F19&lt;80%,F18&gt;$D$14),"GUGUR","LULUS")</f>
@@ -8559,9 +8612,9 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="374"/>
-      <c r="C33" s="374"/>
-      <c r="D33" s="374"/>
+      <c r="B33" s="379"/>
+      <c r="C33" s="379"/>
+      <c r="D33" s="379"/>
       <c r="E33" s="211"/>
       <c r="F33" s="212"/>
       <c r="G33" s="213"/>
@@ -8569,48 +8622,48 @@
       <c r="I33" s="215"/>
     </row>
     <row r="36" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B36" s="312" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="312"/>
-      <c r="D36" s="312"/>
+      <c r="B36" s="320" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="320"/>
+      <c r="D36" s="320"/>
       <c r="E36" s="216"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F37" s="311" t="s">
+      <c r="F37" s="372" t="s">
         <v>229</v>
       </c>
-      <c r="G37" s="311"/>
-      <c r="H37" s="311"/>
-      <c r="I37" s="311"/>
+      <c r="G37" s="319"/>
+      <c r="H37" s="319"/>
+      <c r="I37" s="319"/>
     </row>
     <row r="38" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="341" t="s">
-        <v>153</v>
-      </c>
-      <c r="C38" s="341"/>
-      <c r="D38" s="341"/>
+      <c r="B38" s="322" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="322"/>
+      <c r="D38" s="322"/>
       <c r="E38" s="217"/>
-      <c r="F38" s="311" t="s">
-        <v>154</v>
-      </c>
-      <c r="G38" s="311"/>
-      <c r="H38" s="311"/>
-      <c r="I38" s="311"/>
+      <c r="F38" s="372" t="s">
+        <v>230</v>
+      </c>
+      <c r="G38" s="319"/>
+      <c r="H38" s="319"/>
+      <c r="I38" s="319"/>
     </row>
     <row r="39" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="341" t="s">
-        <v>155</v>
-      </c>
-      <c r="C39" s="341"/>
-      <c r="D39" s="341"/>
+      <c r="B39" s="322" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="322"/>
+      <c r="D39" s="322"/>
       <c r="E39" s="217"/>
-      <c r="F39" s="311" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="311"/>
-      <c r="H39" s="311"/>
-      <c r="I39" s="311"/>
+      <c r="F39" s="319" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="319"/>
+      <c r="H39" s="319"/>
+      <c r="I39" s="319"/>
     </row>
     <row r="40" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F40" s="2"/>
@@ -8619,40 +8672,40 @@
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="2:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="312"/>
-      <c r="C41" s="312"/>
-      <c r="D41" s="312"/>
+      <c r="B41" s="320"/>
+      <c r="C41" s="320"/>
+      <c r="D41" s="320"/>
       <c r="E41" s="218" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="340" t="s">
-        <v>131</v>
-      </c>
-      <c r="G41" s="340"/>
+      <c r="F41" s="323" t="s">
+        <v>130</v>
+      </c>
+      <c r="G41" s="323"/>
       <c r="H41" s="74" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="I41" s="220" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J41" s="74"/>
     </row>
     <row r="42" spans="2:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="314"/>
-      <c r="C42" s="314"/>
-      <c r="D42" s="314"/>
+      <c r="B42" s="318"/>
+      <c r="C42" s="318"/>
+      <c r="D42" s="318"/>
       <c r="E42" s="218" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="340" t="s">
-        <v>132</v>
-      </c>
-      <c r="G42" s="340"/>
+      <c r="F42" s="323" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" s="323"/>
       <c r="H42" s="219" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I42" s="74" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J42" s="74"/>
     </row>
@@ -8660,15 +8713,15 @@
       <c r="E43" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="340" t="s">
-        <v>133</v>
-      </c>
-      <c r="G43" s="340"/>
+      <c r="F43" s="323" t="s">
+        <v>132</v>
+      </c>
+      <c r="G43" s="323"/>
       <c r="H43" s="219" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I43" s="220" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J43" s="74"/>
     </row>
@@ -8676,34 +8729,34 @@
       <c r="E44" s="221" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="340" t="s">
-        <v>134</v>
-      </c>
-      <c r="G44" s="340"/>
+      <c r="F44" s="323" t="s">
+        <v>133</v>
+      </c>
+      <c r="G44" s="323"/>
       <c r="H44" s="74" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I44" s="74" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J44" s="74"/>
     </row>
     <row r="45" spans="2:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="314"/>
-      <c r="C45" s="314"/>
-      <c r="D45" s="314"/>
+      <c r="B45" s="318"/>
+      <c r="C45" s="318"/>
+      <c r="D45" s="318"/>
       <c r="E45" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="340" t="s">
-        <v>157</v>
-      </c>
-      <c r="G45" s="340"/>
+      <c r="F45" s="323" t="s">
+        <v>154</v>
+      </c>
+      <c r="G45" s="323"/>
       <c r="H45" s="74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I45" s="220" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J45" s="74"/>
     </row>
@@ -8711,15 +8764,15 @@
       <c r="E46" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="340" t="s">
-        <v>136</v>
-      </c>
-      <c r="G46" s="340"/>
+      <c r="F46" s="323" t="s">
+        <v>135</v>
+      </c>
+      <c r="G46" s="323"/>
       <c r="H46" s="74" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I46" s="74" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J46" s="74"/>
     </row>
@@ -8727,15 +8780,15 @@
       <c r="E47" s="221" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="340" t="s">
-        <v>137</v>
-      </c>
-      <c r="G47" s="340"/>
+      <c r="F47" s="323" t="s">
+        <v>136</v>
+      </c>
+      <c r="G47" s="323"/>
       <c r="H47" s="219" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I47" s="220" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J47" s="74"/>
     </row>
@@ -8744,6 +8797,18 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="F38:I38"/>
     <mergeCell ref="B6:I6"/>
@@ -8758,18 +8823,6 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
   </mergeCells>
   <conditionalFormatting sqref="F32:I32">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
@@ -8797,8 +8850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8850,52 +8903,52 @@
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="317" t="s">
+      <c r="A3" s="313" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="317"/>
-      <c r="C3" s="317"/>
-      <c r="D3" s="317"/>
-      <c r="E3" s="317"/>
-      <c r="F3" s="317"/>
-      <c r="G3" s="317"/>
-      <c r="H3" s="317"/>
-      <c r="I3" s="317"/>
-      <c r="J3" s="317"/>
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="313"/>
+      <c r="G3" s="313"/>
+      <c r="H3" s="313"/>
+      <c r="I3" s="313"/>
+      <c r="J3" s="313"/>
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="314" t="str">
+      <c r="A4" s="318" t="str">
         <f>RekAdm!B6</f>
-        <v>PEKERJAAN ............................................................</v>
-      </c>
-      <c r="B4" s="314"/>
-      <c r="C4" s="314"/>
-      <c r="D4" s="314"/>
-      <c r="E4" s="314"/>
-      <c r="F4" s="314"/>
-      <c r="G4" s="314"/>
-      <c r="H4" s="314"/>
-      <c r="I4" s="314"/>
-      <c r="J4" s="314"/>
+        <v>PEKERJAAN #namapengadaan#</v>
+      </c>
+      <c r="B4" s="318"/>
+      <c r="C4" s="318"/>
+      <c r="D4" s="318"/>
+      <c r="E4" s="318"/>
+      <c r="F4" s="318"/>
+      <c r="G4" s="318"/>
+      <c r="H4" s="318"/>
+      <c r="I4" s="318"/>
+      <c r="J4" s="318"/>
       <c r="K4" s="39"/>
       <c r="L4" s="39"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="314" t="str">
+      <c r="A5" s="318" t="str">
         <f>RekAdm!B7</f>
         <v>PT PLN (PERSERO) KANTOR PUSAT</v>
       </c>
-      <c r="B5" s="314"/>
-      <c r="C5" s="314"/>
-      <c r="D5" s="314"/>
-      <c r="E5" s="314"/>
-      <c r="F5" s="314"/>
-      <c r="G5" s="314"/>
-      <c r="H5" s="314"/>
-      <c r="I5" s="314"/>
-      <c r="J5" s="314"/>
+      <c r="B5" s="318"/>
+      <c r="C5" s="318"/>
+      <c r="D5" s="318"/>
+      <c r="E5" s="318"/>
+      <c r="F5" s="318"/>
+      <c r="G5" s="318"/>
+      <c r="H5" s="318"/>
+      <c r="I5" s="318"/>
+      <c r="J5" s="318"/>
       <c r="K5" s="39"/>
       <c r="L5" s="39"/>
     </row>
@@ -8914,66 +8967,66 @@
       <c r="L6" s="37"/>
     </row>
     <row r="7" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="335" t="s">
+      <c r="A7" s="324" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="336" t="s">
+      <c r="B7" s="325" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="326"/>
+      <c r="D7" s="326"/>
+      <c r="E7" s="326"/>
+      <c r="F7" s="383" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="337"/>
-      <c r="D7" s="337"/>
-      <c r="E7" s="337"/>
-      <c r="F7" s="379" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="379"/>
-      <c r="H7" s="379"/>
-      <c r="I7" s="379"/>
-      <c r="J7" s="379"/>
+      <c r="G7" s="383"/>
+      <c r="H7" s="383"/>
+      <c r="I7" s="383"/>
+      <c r="J7" s="383"/>
       <c r="K7" s="40"/>
       <c r="L7" s="40"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="335"/>
-      <c r="B8" s="336"/>
-      <c r="C8" s="337"/>
-      <c r="D8" s="337"/>
-      <c r="E8" s="337"/>
-      <c r="F8" s="339" t="s">
-        <v>230</v>
-      </c>
-      <c r="G8" s="339" t="s">
-        <v>230</v>
-      </c>
-      <c r="H8" s="339" t="s">
-        <v>230</v>
-      </c>
-      <c r="I8" s="339" t="s">
-        <v>230</v>
-      </c>
-      <c r="J8" s="339" t="s">
-        <v>230</v>
-      </c>
-      <c r="K8" s="339" t="s">
-        <v>230</v>
-      </c>
-      <c r="L8" s="339" t="s">
-        <v>230</v>
+      <c r="A8" s="324"/>
+      <c r="B8" s="325"/>
+      <c r="C8" s="326"/>
+      <c r="D8" s="326"/>
+      <c r="E8" s="326"/>
+      <c r="F8" s="328" t="s">
+        <v>222</v>
+      </c>
+      <c r="G8" s="328" t="s">
+        <v>222</v>
+      </c>
+      <c r="H8" s="328" t="s">
+        <v>222</v>
+      </c>
+      <c r="I8" s="328" t="s">
+        <v>222</v>
+      </c>
+      <c r="J8" s="328" t="s">
+        <v>222</v>
+      </c>
+      <c r="K8" s="328" t="s">
+        <v>222</v>
+      </c>
+      <c r="L8" s="328" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="335"/>
-      <c r="B9" s="336"/>
-      <c r="C9" s="337"/>
-      <c r="D9" s="337"/>
-      <c r="E9" s="337"/>
-      <c r="F9" s="339"/>
-      <c r="G9" s="339"/>
-      <c r="H9" s="339"/>
-      <c r="I9" s="339"/>
-      <c r="J9" s="339"/>
-      <c r="K9" s="339"/>
-      <c r="L9" s="339"/>
+      <c r="A9" s="324"/>
+      <c r="B9" s="325"/>
+      <c r="C9" s="326"/>
+      <c r="D9" s="326"/>
+      <c r="E9" s="326"/>
+      <c r="F9" s="328"/>
+      <c r="G9" s="328"/>
+      <c r="H9" s="328"/>
+      <c r="I9" s="328"/>
+      <c r="J9" s="328"/>
+      <c r="K9" s="328"/>
+      <c r="L9" s="328"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="42"/>
@@ -8993,12 +9046,12 @@
       <c r="A11" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="332" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="332"/>
-      <c r="D11" s="332"/>
-      <c r="E11" s="332"/>
+      <c r="B11" s="329" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="329"/>
+      <c r="D11" s="329"/>
+      <c r="E11" s="329"/>
       <c r="F11" s="47"/>
       <c r="G11" s="48"/>
       <c r="H11" s="48"/>
@@ -9010,10 +9063,10 @@
     <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="46"/>
       <c r="B12" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="51" t="s">
         <v>38</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>39</v>
       </c>
       <c r="D12" s="50"/>
       <c r="E12" s="52"/>
@@ -9028,10 +9081,10 @@
     <row r="13" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="46"/>
       <c r="B13" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="50"/>
       <c r="E13" s="52"/>
@@ -9046,10 +9099,10 @@
     <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="46"/>
       <c r="B14" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="52"/>
@@ -9064,13 +9117,13 @@
     <row r="15" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="46"/>
       <c r="B15" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="333" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="333"/>
-      <c r="E15" s="332"/>
+        <v>37</v>
+      </c>
+      <c r="C15" s="330" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="330"/>
+      <c r="E15" s="329"/>
       <c r="F15" s="226"/>
       <c r="G15" s="227"/>
       <c r="H15" s="227"/>
@@ -9083,12 +9136,12 @@
       <c r="A16" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="332" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="332"/>
-      <c r="D16" s="332"/>
-      <c r="E16" s="332"/>
+      <c r="B16" s="329" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="329"/>
+      <c r="D16" s="329"/>
+      <c r="E16" s="329"/>
       <c r="F16" s="226"/>
       <c r="G16" s="227"/>
       <c r="H16" s="227"/>
@@ -9101,12 +9154,12 @@
       <c r="A17" s="46">
         <v>2</v>
       </c>
-      <c r="B17" s="332" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="332"/>
-      <c r="D17" s="332"/>
-      <c r="E17" s="332"/>
+      <c r="B17" s="329" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="329"/>
+      <c r="D17" s="329"/>
+      <c r="E17" s="329"/>
       <c r="F17" s="226"/>
       <c r="G17" s="227"/>
       <c r="H17" s="227"/>
@@ -9118,13 +9171,13 @@
     <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="46"/>
       <c r="B18" s="242" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="331" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="334" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="334"/>
-      <c r="E18" s="334"/>
+      <c r="D18" s="331"/>
+      <c r="E18" s="331"/>
       <c r="F18" s="226"/>
       <c r="G18" s="227"/>
       <c r="H18" s="227"/>
@@ -9136,13 +9189,13 @@
     <row r="19" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="46"/>
       <c r="B19" s="242" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="331" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="334" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="334"/>
-      <c r="E19" s="334"/>
+      <c r="D19" s="331"/>
+      <c r="E19" s="331"/>
       <c r="F19" s="226"/>
       <c r="G19" s="227"/>
       <c r="H19" s="227"/>
@@ -9154,13 +9207,13 @@
     <row r="20" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="46"/>
       <c r="B20" s="242" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="331" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="334" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="334"/>
-      <c r="E20" s="334"/>
+      <c r="D20" s="331"/>
+      <c r="E20" s="331"/>
       <c r="F20" s="226"/>
       <c r="G20" s="227"/>
       <c r="H20" s="227"/>
@@ -9172,13 +9225,13 @@
     <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="46"/>
       <c r="B21" s="242" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="331" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="334" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="334"/>
-      <c r="E21" s="334"/>
+      <c r="D21" s="331"/>
+      <c r="E21" s="331"/>
       <c r="F21" s="226"/>
       <c r="G21" s="227"/>
       <c r="H21" s="227"/>
@@ -9190,13 +9243,13 @@
     <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="46"/>
       <c r="B22" s="242" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="331" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="334" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="334"/>
-      <c r="E22" s="334"/>
+      <c r="D22" s="331"/>
+      <c r="E22" s="331"/>
       <c r="F22" s="226"/>
       <c r="G22" s="227"/>
       <c r="H22" s="227"/>
@@ -9208,13 +9261,13 @@
     <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="46"/>
       <c r="B23" s="242" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="331" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="334" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="334"/>
-      <c r="E23" s="334"/>
+      <c r="D23" s="331"/>
+      <c r="E23" s="331"/>
       <c r="F23" s="226"/>
       <c r="G23" s="227"/>
       <c r="H23" s="227"/>
@@ -9226,13 +9279,13 @@
     <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="46"/>
       <c r="B24" s="242" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="334" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="334"/>
-      <c r="E24" s="334"/>
+        <v>58</v>
+      </c>
+      <c r="C24" s="331" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="331"/>
+      <c r="E24" s="331"/>
       <c r="F24" s="226"/>
       <c r="G24" s="227"/>
       <c r="H24" s="227"/>
@@ -9244,13 +9297,13 @@
     <row r="25" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="46"/>
       <c r="B25" s="242" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="331" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="334" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="334"/>
-      <c r="E25" s="334"/>
+      <c r="D25" s="331"/>
+      <c r="E25" s="331"/>
       <c r="F25" s="226"/>
       <c r="G25" s="227"/>
       <c r="H25" s="227"/>
@@ -9262,13 +9315,13 @@
     <row r="26" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="46"/>
       <c r="B26" s="242" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="331" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="334" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="334"/>
-      <c r="E26" s="334"/>
+      <c r="D26" s="331"/>
+      <c r="E26" s="331"/>
       <c r="F26" s="226"/>
       <c r="G26" s="227"/>
       <c r="H26" s="227"/>
@@ -9280,13 +9333,13 @@
     <row r="27" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="46"/>
       <c r="B27" s="242" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="334" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="334"/>
-      <c r="E27" s="334"/>
+        <v>61</v>
+      </c>
+      <c r="C27" s="331" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="331"/>
+      <c r="E27" s="331"/>
       <c r="F27" s="226"/>
       <c r="G27" s="227"/>
       <c r="H27" s="227"/>
@@ -9298,13 +9351,13 @@
     <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="46"/>
       <c r="B28" s="242" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="334" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="334"/>
-      <c r="E28" s="334"/>
+        <v>63</v>
+      </c>
+      <c r="C28" s="331" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="331"/>
+      <c r="E28" s="331"/>
       <c r="F28" s="226"/>
       <c r="G28" s="227"/>
       <c r="H28" s="227"/>
@@ -9316,13 +9369,13 @@
     <row r="29" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="46"/>
       <c r="B29" s="242" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="331" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="334" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="334"/>
-      <c r="E29" s="334"/>
+      <c r="D29" s="331"/>
+      <c r="E29" s="331"/>
       <c r="F29" s="226"/>
       <c r="G29" s="227"/>
       <c r="H29" s="227"/>
@@ -9334,13 +9387,13 @@
     <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="46"/>
       <c r="B30" s="242" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="332" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="328" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="328"/>
-      <c r="E30" s="328"/>
+      <c r="D30" s="332"/>
+      <c r="E30" s="332"/>
       <c r="F30" s="226"/>
       <c r="G30" s="227"/>
       <c r="H30" s="227"/>
@@ -9354,10 +9407,10 @@
       <c r="B31" s="53"/>
       <c r="C31" s="53"/>
       <c r="D31" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" s="121" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F31" s="234"/>
       <c r="G31" s="228"/>
@@ -9372,10 +9425,10 @@
       <c r="B32" s="53"/>
       <c r="C32" s="53"/>
       <c r="D32" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="121" t="s">
         <v>73</v>
-      </c>
-      <c r="E32" s="121" t="s">
-        <v>74</v>
       </c>
       <c r="F32" s="234"/>
       <c r="G32" s="228"/>
@@ -9390,10 +9443,10 @@
       <c r="B33" s="53"/>
       <c r="C33" s="53"/>
       <c r="D33" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="121" t="s">
         <v>75</v>
-      </c>
-      <c r="E33" s="121" t="s">
-        <v>76</v>
       </c>
       <c r="F33" s="235"/>
       <c r="G33" s="236"/>
@@ -9406,13 +9459,13 @@
     <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="46"/>
       <c r="B34" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="332" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="328" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="328"/>
-      <c r="E34" s="328"/>
+      <c r="D34" s="332"/>
+      <c r="E34" s="332"/>
       <c r="F34" s="226"/>
       <c r="G34" s="227"/>
       <c r="H34" s="227"/>
@@ -9426,10 +9479,10 @@
       <c r="B35" s="53"/>
       <c r="C35" s="53"/>
       <c r="D35" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E35" s="121" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F35" s="226"/>
       <c r="G35" s="228"/>
@@ -9444,10 +9497,10 @@
       <c r="B36" s="53"/>
       <c r="C36" s="53"/>
       <c r="D36" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E36" s="121" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F36" s="226"/>
       <c r="G36" s="238"/>
@@ -9462,10 +9515,10 @@
       <c r="B37" s="53"/>
       <c r="C37" s="53"/>
       <c r="D37" s="55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E37" s="121" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F37" s="239"/>
       <c r="G37" s="240"/>
@@ -9478,13 +9531,13 @@
     <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="46"/>
       <c r="B38" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="332" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="328" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="328"/>
-      <c r="E38" s="328"/>
+      <c r="D38" s="332"/>
+      <c r="E38" s="332"/>
       <c r="F38" s="226"/>
       <c r="G38" s="227"/>
       <c r="H38" s="227"/>
@@ -9498,10 +9551,10 @@
       <c r="B39" s="53"/>
       <c r="C39" s="53"/>
       <c r="D39" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E39" s="121" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F39" s="234"/>
       <c r="G39" s="228"/>
@@ -9516,10 +9569,10 @@
       <c r="B40" s="53"/>
       <c r="C40" s="53"/>
       <c r="D40" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E40" s="121" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F40" s="241"/>
       <c r="G40" s="238"/>
@@ -9534,10 +9587,10 @@
       <c r="B41" s="53"/>
       <c r="C41" s="53"/>
       <c r="D41" s="55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E41" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F41" s="234"/>
       <c r="G41" s="228"/>
@@ -9550,13 +9603,13 @@
     <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="46"/>
       <c r="B42" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="332" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="328" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="328"/>
-      <c r="E42" s="328"/>
+      <c r="D42" s="332"/>
+      <c r="E42" s="332"/>
       <c r="F42" s="226"/>
       <c r="G42" s="227"/>
       <c r="H42" s="227"/>
@@ -9568,13 +9621,13 @@
     <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="46"/>
       <c r="B43" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="332" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="328" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="328"/>
-      <c r="E43" s="328"/>
+      <c r="D43" s="332"/>
+      <c r="E43" s="332"/>
       <c r="F43" s="226"/>
       <c r="G43" s="227"/>
       <c r="H43" s="227"/>
@@ -9586,13 +9639,13 @@
     <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="46"/>
       <c r="B44" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="332" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="328" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="328"/>
-      <c r="E44" s="328"/>
+      <c r="D44" s="332"/>
+      <c r="E44" s="332"/>
       <c r="F44" s="226"/>
       <c r="G44" s="227"/>
       <c r="H44" s="227"/>
@@ -9604,13 +9657,13 @@
     <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="46"/>
       <c r="B45" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="332" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="328" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="328"/>
-      <c r="E45" s="328"/>
+      <c r="D45" s="332"/>
+      <c r="E45" s="332"/>
       <c r="F45" s="226"/>
       <c r="G45" s="227"/>
       <c r="H45" s="227"/>
@@ -9622,11 +9675,11 @@
     <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="46"/>
       <c r="B46" s="53"/>
-      <c r="C46" s="328" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="328"/>
-      <c r="E46" s="328"/>
+      <c r="C46" s="332" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="332"/>
+      <c r="E46" s="332"/>
       <c r="F46" s="226"/>
       <c r="G46" s="227"/>
       <c r="H46" s="227"/>
@@ -9638,11 +9691,11 @@
     <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="46"/>
       <c r="B47" s="53"/>
-      <c r="C47" s="328" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" s="328"/>
-      <c r="E47" s="328"/>
+      <c r="C47" s="332" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="332"/>
+      <c r="E47" s="332"/>
       <c r="F47" s="226"/>
       <c r="G47" s="227"/>
       <c r="H47" s="227"/>
@@ -9654,11 +9707,11 @@
     <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="46"/>
       <c r="B48" s="53"/>
-      <c r="C48" s="328" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" s="328"/>
-      <c r="E48" s="328"/>
+      <c r="C48" s="332" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="332"/>
+      <c r="E48" s="332"/>
       <c r="F48" s="226"/>
       <c r="G48" s="227"/>
       <c r="H48" s="227"/>
@@ -9670,13 +9723,13 @@
     <row r="49" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="46"/>
       <c r="B49" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="332" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="328" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="328"/>
-      <c r="E49" s="328"/>
+      <c r="D49" s="332"/>
+      <c r="E49" s="332"/>
       <c r="F49" s="226"/>
       <c r="G49" s="227"/>
       <c r="H49" s="227"/>
@@ -9688,13 +9741,13 @@
     <row r="50" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="46"/>
       <c r="B50" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="332" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="328" t="s">
-        <v>100</v>
-      </c>
-      <c r="D50" s="328"/>
-      <c r="E50" s="328"/>
+      <c r="D50" s="332"/>
+      <c r="E50" s="332"/>
       <c r="F50" s="226"/>
       <c r="G50" s="227"/>
       <c r="H50" s="227"/>
@@ -9706,13 +9759,13 @@
     <row r="51" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="46"/>
       <c r="B51" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="332" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="328" t="s">
-        <v>102</v>
-      </c>
-      <c r="D51" s="328"/>
-      <c r="E51" s="328"/>
+      <c r="D51" s="332"/>
+      <c r="E51" s="332"/>
       <c r="F51" s="226"/>
       <c r="G51" s="227"/>
       <c r="H51" s="227"/>
@@ -9724,11 +9777,11 @@
     <row r="52" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="46"/>
       <c r="B52" s="53"/>
-      <c r="C52" s="328" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" s="328"/>
-      <c r="E52" s="328"/>
+      <c r="C52" s="332" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" s="332"/>
+      <c r="E52" s="332"/>
       <c r="F52" s="226"/>
       <c r="G52" s="227"/>
       <c r="H52" s="227"/>
@@ -9740,13 +9793,13 @@
     <row r="53" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="46"/>
       <c r="B53" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="332" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="328" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" s="328"/>
-      <c r="E53" s="328"/>
+      <c r="D53" s="332"/>
+      <c r="E53" s="332"/>
       <c r="F53" s="47"/>
       <c r="G53" s="48"/>
       <c r="H53" s="48"/>
@@ -9759,7 +9812,7 @@
       <c r="A54" s="46"/>
       <c r="B54" s="53"/>
       <c r="C54" s="382" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D54" s="380"/>
       <c r="E54" s="381"/>
@@ -9775,7 +9828,7 @@
       <c r="A55" s="46"/>
       <c r="B55" s="53"/>
       <c r="C55" s="380" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D55" s="380"/>
       <c r="E55" s="381"/>
@@ -9790,11 +9843,11 @@
     <row r="56" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="46"/>
       <c r="B56" s="53"/>
-      <c r="C56" s="328" t="s">
-        <v>108</v>
-      </c>
-      <c r="D56" s="328"/>
-      <c r="E56" s="328"/>
+      <c r="C56" s="332" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="332"/>
+      <c r="E56" s="332"/>
       <c r="F56" s="226"/>
       <c r="G56" s="227"/>
       <c r="H56" s="227"/>
@@ -9807,7 +9860,7 @@
       <c r="A57" s="46"/>
       <c r="B57" s="53"/>
       <c r="C57" s="380" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D57" s="380"/>
       <c r="E57" s="381"/>
@@ -9834,48 +9887,48 @@
       <c r="L58" s="58"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="325" t="s">
-        <v>110</v>
-      </c>
-      <c r="B59" s="325"/>
-      <c r="C59" s="325"/>
-      <c r="D59" s="325"/>
-      <c r="E59" s="325"/>
+      <c r="A59" s="339" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="339"/>
+      <c r="C59" s="339"/>
+      <c r="D59" s="339"/>
+      <c r="E59" s="339"/>
       <c r="F59" s="59" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G59" s="59" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H59" s="59" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I59" s="60" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J59" s="59" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K59" s="59" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L59" s="59" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="325" t="s">
+      <c r="A60" s="339" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="325"/>
-      <c r="C60" s="325"/>
-      <c r="D60" s="325"/>
-      <c r="E60" s="325"/>
+      <c r="B60" s="339"/>
+      <c r="C60" s="339"/>
+      <c r="D60" s="339"/>
+      <c r="E60" s="339"/>
       <c r="F60" s="61"/>
       <c r="G60" s="61"/>
       <c r="H60" s="62"/>
       <c r="I60" s="62" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J60" s="62"/>
       <c r="K60" s="62"/>
@@ -9901,13 +9954,13 @@
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="311" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" s="311"/>
-      <c r="H62" s="311"/>
-      <c r="I62" s="311"/>
-      <c r="J62" s="311"/>
+      <c r="F62" s="372" t="s">
+        <v>231</v>
+      </c>
+      <c r="G62" s="319"/>
+      <c r="H62" s="319"/>
+      <c r="I62" s="319"/>
+      <c r="J62" s="319"/>
       <c r="K62" s="65"/>
       <c r="L62" s="65"/>
     </row>
@@ -9917,13 +9970,13 @@
       <c r="C63" s="66"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="311" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" s="311"/>
-      <c r="H63" s="311"/>
-      <c r="I63" s="311"/>
-      <c r="J63" s="311"/>
+      <c r="F63" s="319" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" s="319"/>
+      <c r="H63" s="319"/>
+      <c r="I63" s="319"/>
+      <c r="J63" s="319"/>
       <c r="K63" s="65"/>
       <c r="L63" s="65"/>
     </row>
@@ -9973,10 +10026,10 @@
       <c r="A67" s="4"/>
       <c r="D67" s="4"/>
       <c r="F67" s="245" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H67" s="37" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I67" s="37"/>
       <c r="J67" s="37"/>
@@ -9987,7 +10040,7 @@
       <c r="A68" s="67"/>
       <c r="D68" s="4"/>
       <c r="F68" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I68" s="243"/>
       <c r="J68" s="69"/>
@@ -10011,7 +10064,7 @@
       <c r="A71" s="67"/>
       <c r="D71" s="4"/>
       <c r="F71" s="245" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I71" s="243"/>
       <c r="J71" s="69"/>
@@ -10021,10 +10074,10 @@
       <c r="A72" s="4"/>
       <c r="D72" s="4"/>
       <c r="F72" s="67" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H72" s="37" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K72" s="70"/>
     </row>
@@ -10043,7 +10096,7 @@
       <c r="A75" s="67"/>
       <c r="D75" s="4"/>
       <c r="F75" s="245" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="K75" s="69"/>
     </row>
@@ -10051,7 +10104,7 @@
       <c r="A76" s="67"/>
       <c r="D76" s="4"/>
       <c r="F76" s="67" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K76" s="69"/>
     </row>
@@ -10059,7 +10112,7 @@
       <c r="A77" s="67"/>
       <c r="D77" s="4"/>
       <c r="H77" s="37" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K77" s="69"/>
     </row>
@@ -10071,14 +10124,14 @@
     <row r="79" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="F79" s="245" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="K79" s="70"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="67"/>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K80" s="69"/>
       <c r="L80" s="69"/>
@@ -10091,7 +10144,7 @@
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="67"/>
       <c r="H82" s="37" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K82" s="69"/>
       <c r="L82" s="69"/>
@@ -10099,7 +10152,7 @@
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="67"/>
       <c r="F83" s="245" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="K83" s="69"/>
       <c r="L83" s="69"/>
@@ -10107,7 +10160,7 @@
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="67"/>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J84" s="244"/>
       <c r="K84" s="69"/>
@@ -10122,7 +10175,7 @@
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="67"/>
       <c r="H86" s="37" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J86" s="244"/>
       <c r="K86" s="69"/>
@@ -10131,7 +10184,7 @@
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="67"/>
       <c r="F87" s="245" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="J87" s="244"/>
       <c r="K87" s="69"/>
@@ -10140,7 +10193,7 @@
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="67"/>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I88" s="71"/>
       <c r="J88" s="244"/>
@@ -10157,10 +10210,10 @@
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="67"/>
       <c r="F90" s="245" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H90" s="37" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I90" s="71"/>
       <c r="J90" s="244"/>
@@ -10170,7 +10223,7 @@
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="67"/>
       <c r="F91" s="244" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I91" s="71"/>
       <c r="J91" s="244"/>
@@ -10201,11 +10254,38 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:E9"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C38:E38"/>
     <mergeCell ref="C42:E42"/>
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="C44:E44"/>
@@ -10221,38 +10301,11 @@
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:E9"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F63:J63"/>
   </mergeCells>
   <pageMargins left="0.17" right="0.18" top="0.53" bottom="0.64" header="0.17" footer="0.17"/>
   <pageSetup scale="85" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -10275,7 +10328,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="223" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B1" s="223">
         <v>7203000000</v>
@@ -10283,7 +10336,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="223" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B2" s="223">
         <v>22736055804</v>
@@ -10296,7 +10349,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="223" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B4" s="223">
         <v>3839820129</v>
@@ -10304,7 +10357,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="223" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B5" s="223">
         <v>365133900</v>
@@ -10312,7 +10365,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="223" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B6" s="223">
         <f>B5+B4</f>
@@ -10321,7 +10374,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="223" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B7" s="223">
         <v>2790000000</v>
@@ -10335,7 +10388,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="223" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B10" s="223">
         <f>5932646241-749977542</f>
@@ -10344,7 +10397,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="223" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B11" s="223">
         <v>365200000</v>
@@ -10358,7 +10411,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="223" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -10383,8 +10436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10397,142 +10450,142 @@
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="294" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="383" t="s">
+      <c r="B4" s="384" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="383" t="s">
-        <v>202</v>
+      <c r="C4" s="384" t="s">
+        <v>199</v>
       </c>
       <c r="D4" s="293" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="293" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="293" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="293" t="s">
         <v>196</v>
       </c>
-      <c r="E4" s="293" t="s">
+      <c r="H4" s="293" t="s">
         <v>197</v>
       </c>
-      <c r="F4" s="293" t="s">
+      <c r="I4" s="385" t="s">
         <v>198</v>
       </c>
-      <c r="G4" s="293" t="s">
-        <v>199</v>
-      </c>
-      <c r="H4" s="293" t="s">
-        <v>200</v>
-      </c>
-      <c r="I4" s="384" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="383"/>
-      <c r="C5" s="383"/>
+      <c r="B5" s="384"/>
+      <c r="C5" s="384"/>
       <c r="D5" s="290" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="290" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="290" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" s="290" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H5" s="290" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="384"/>
+        <v>79</v>
+      </c>
+      <c r="I5" s="385"/>
     </row>
     <row r="6" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="291" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="292" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6" s="286">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E6" s="286">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F6" s="286">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G6" s="286">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H6" s="286">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I6" s="289">
         <f>(H6+G6+F6+E6+D6)/5</f>
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="291" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="292" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" s="287">
         <v>0</v>
       </c>
       <c r="E7" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F7" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G7" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H7" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I7" s="289">
         <f>(H7+G7+F7+E7+D7)/5</f>
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="291" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="292" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E8" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="289">
         <f>(H8+G8+F8+E8+D8)/5</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="291" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="292" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D9" s="287">
         <v>0</v>
@@ -10556,10 +10609,10 @@
     </row>
     <row r="10" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="291" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="292" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D10" s="288">
         <v>0</v>
@@ -10583,91 +10636,91 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="294" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="383" t="s">
+      <c r="B13" s="384" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="383" t="s">
-        <v>202</v>
+      <c r="C13" s="384" t="s">
+        <v>199</v>
       </c>
       <c r="D13" s="293" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" s="293" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="293" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="293" t="s">
         <v>196</v>
       </c>
-      <c r="E13" s="293" t="s">
+      <c r="H13" s="293" t="s">
         <v>197</v>
       </c>
-      <c r="F13" s="293" t="s">
+      <c r="I13" s="385" t="s">
         <v>198</v>
       </c>
-      <c r="G13" s="293" t="s">
-        <v>199</v>
-      </c>
-      <c r="H13" s="293" t="s">
-        <v>200</v>
-      </c>
-      <c r="I13" s="384" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="383"/>
-      <c r="C14" s="383"/>
+      <c r="B14" s="384"/>
+      <c r="C14" s="384"/>
       <c r="D14" s="290" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="290" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" s="290" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" s="290" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H14" s="290" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="384"/>
+        <v>79</v>
+      </c>
+      <c r="I14" s="385"/>
     </row>
     <row r="15" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="291" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="292" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E15" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F15" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G15" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H15" s="286">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="289">
         <f>(H15+G15+F15+E15+D15)/5</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="291" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="292" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E16" s="287">
         <v>0</v>
@@ -10683,75 +10736,75 @@
       </c>
       <c r="I16" s="289">
         <f>(H16+G16+F16+E16+D16)/5</f>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="291" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="292" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D17" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F17" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G17" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H17" s="287">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I17" s="289">
         <f>(H17+G17+F17+E17+D17)/5</f>
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="291" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="292" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D18" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="287">
         <v>0</v>
       </c>
       <c r="I18" s="289">
         <f>(H18+G18+F18+E18+D18)/5</f>
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="291" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="292" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D19" s="288">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E19" s="288">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F19" s="288">
         <v>0</v>
@@ -10764,147 +10817,147 @@
       </c>
       <c r="I19" s="289">
         <f>(H19+G19+F19+E19+D19)/5</f>
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="294" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="383" t="s">
+      <c r="B22" s="384" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="383" t="s">
-        <v>202</v>
+      <c r="C22" s="384" t="s">
+        <v>199</v>
       </c>
       <c r="D22" s="293" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="293" t="s">
+        <v>194</v>
+      </c>
+      <c r="F22" s="293" t="s">
+        <v>195</v>
+      </c>
+      <c r="G22" s="293" t="s">
         <v>196</v>
       </c>
-      <c r="E22" s="293" t="s">
+      <c r="H22" s="293" t="s">
         <v>197</v>
       </c>
-      <c r="F22" s="293" t="s">
+      <c r="I22" s="385" t="s">
         <v>198</v>
       </c>
-      <c r="G22" s="293" t="s">
-        <v>199</v>
-      </c>
-      <c r="H22" s="293" t="s">
-        <v>200</v>
-      </c>
-      <c r="I22" s="384" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="383"/>
-      <c r="C23" s="383"/>
+      <c r="B23" s="384"/>
+      <c r="C23" s="384"/>
       <c r="D23" s="290" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" s="290" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F23" s="290" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" s="290" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H23" s="290" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="384"/>
+        <v>79</v>
+      </c>
+      <c r="I23" s="385"/>
     </row>
     <row r="24" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="291" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="292" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D24" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="286">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I24" s="289">
         <f>(H24+G24+F24+E24+D24)/5</f>
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="291" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="292" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D25" s="287">
         <v>0</v>
       </c>
       <c r="E25" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F25" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G25" s="287">
         <v>0</v>
       </c>
       <c r="H25" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I25" s="289">
         <f>(H25+G25+F25+E25+D25)/5</f>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="291" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="292" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D26" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="287">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="289">
         <f>(H26+G26+F26+E26+D26)/5</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="291" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="292" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D27" s="287">
         <v>0</v>
@@ -10928,10 +10981,10 @@
     </row>
     <row r="28" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="291" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="292" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D28" s="288">
         <v>0</v>
